--- a/input/reg_leaveParentalHome.xlsx
+++ b/input/reg_leaveParentalHome.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475C1A1A-191B-4E16-B661-6F4E9818E729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD259F89-0BAB-4BB9-8E76-65820C3409CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="868" activeTab="1" xr2:uid="{CC6E2FEF-D903-4968-A8BC-51F7E3117EFA}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21480" windowHeight="12675" tabRatio="868" activeTab="1" xr2:uid="{CC6E2FEF-D903-4968-A8BC-51F7E3117EFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
-    <sheet name="P1a" sheetId="12" r:id="rId2"/>
+    <sheet name="HU_P1a" sheetId="12" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/input/reg_leaveParentalHome.xlsx
+++ b/input/reg_leaveParentalHome.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9FB6A5-3228-4334-B3DB-217176B6CDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA03DEA5-803D-406B-A1EB-4277D28EB6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="17363" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -242,97 +242,6 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -343,133 +252,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="44">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -656,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -683,24 +466,6 @@
     <xf numFmtId="2" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="24" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="25" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="33" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="36" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="38" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="39" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="40" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="42" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1041,9 +806,9 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1059,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1067,7 +832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1086,9 +851,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -1153,1239 +918,1239 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7">
-        <v>-3.3991304867535641E-2</v>
+      <c r="B2" s="25">
+        <v>-2.4134932775063279E-2</v>
       </c>
       <c r="C2">
-        <v>2.6651080531724671E-3</v>
+        <v>2.6786995283584469E-3</v>
       </c>
       <c r="D2">
-        <v>-4.628570503025375E-5</v>
+        <v>4.6797951520704662E-6</v>
       </c>
       <c r="E2">
-        <v>5.385239257324155E-7</v>
+        <v>6.2903889187067425E-8</v>
       </c>
       <c r="F2">
-        <v>-1.1858676012907478E-3</v>
+        <v>-6.5833671985596393E-4</v>
       </c>
       <c r="G2">
-        <v>-1.4963213326963545E-3</v>
+        <v>-9.0868467049688641E-4</v>
       </c>
       <c r="H2">
-        <v>5.7244947427717531E-4</v>
+        <v>1.0398421251951178E-3</v>
       </c>
       <c r="I2">
-        <v>4.6582832891776E-4</v>
+        <v>3.8922907209524535E-4</v>
       </c>
       <c r="J2">
-        <v>8.2265954675677202E-5</v>
+        <v>3.3840986030915922E-4</v>
       </c>
       <c r="K2">
-        <v>4.1652196977584095E-4</v>
+        <v>5.3187928020223302E-4</v>
       </c>
       <c r="L2">
-        <v>2.3788177271647789E-4</v>
+        <v>4.501254327166738E-5</v>
       </c>
       <c r="M2">
-        <v>-1.6847836065921911E-4</v>
+        <v>6.7744834056419315E-5</v>
       </c>
       <c r="N2">
-        <v>-3.2578394060532134E-4</v>
+        <v>-3.2194673501378457E-5</v>
       </c>
       <c r="O2">
-        <v>-4.356771982730193E-6</v>
+        <v>2.8035150865206548E-4</v>
       </c>
       <c r="P2">
-        <v>-2.1361637455647744E-4</v>
+        <v>-1.8798732344615606E-5</v>
       </c>
       <c r="Q2">
-        <v>-4.8475934520714295E-4</v>
+        <v>-4.1905281142000925E-4</v>
       </c>
       <c r="R2">
-        <v>1.8379265412059729E-5</v>
+        <v>-3.6781134066994552E-5</v>
       </c>
       <c r="S2">
-        <v>-4.0182035420971397E-4</v>
+        <v>1.6000218189488069E-4</v>
       </c>
       <c r="T2">
-        <v>-4.7872568289521308E-5</v>
+        <v>3.3725991723435544E-4</v>
       </c>
       <c r="U2">
-        <v>-2.1802782551923021E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+        <v>-1.0933608305128194E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9">
-        <v>-1.3885906802094785E-3</v>
+      <c r="B3" s="25">
+        <v>-5.1391121246262871E-3</v>
       </c>
       <c r="C3">
-        <v>-4.628570503025375E-5</v>
+        <v>4.6797951520704662E-6</v>
       </c>
       <c r="D3">
-        <v>1.4172022908760036E-4</v>
+        <v>1.5158971216166725E-4</v>
       </c>
       <c r="E3">
-        <v>-1.579756037868155E-6</v>
+        <v>-1.6840198780767895E-6</v>
       </c>
       <c r="F3">
-        <v>1.3928743568976591E-4</v>
+        <v>8.3230982827221843E-5</v>
       </c>
       <c r="G3">
-        <v>1.7973237903520813E-4</v>
+        <v>1.3566738004422516E-4</v>
       </c>
       <c r="H3">
-        <v>5.3952643254422019E-4</v>
+        <v>6.3274477635322528E-4</v>
       </c>
       <c r="I3">
-        <v>1.9257463740090825E-5</v>
+        <v>5.3566181898893675E-5</v>
       </c>
       <c r="J3">
-        <v>1.25309074780479E-4</v>
+        <v>1.7376225322423576E-4</v>
       </c>
       <c r="K3">
-        <v>1.0096491880340369E-4</v>
+        <v>1.4956347356677991E-4</v>
       </c>
       <c r="L3">
-        <v>3.0089269188631309E-5</v>
+        <v>9.6594925385681471E-5</v>
       </c>
       <c r="M3">
-        <v>3.3080500878126737E-5</v>
+        <v>9.5020011829085151E-5</v>
       </c>
       <c r="N3">
-        <v>-1.7059454991871E-4</v>
+        <v>-2.6032021345152021E-4</v>
       </c>
       <c r="O3">
-        <v>-5.9001300390501251E-5</v>
+        <v>-7.4081630115542248E-5</v>
       </c>
       <c r="P3">
-        <v>-1.1733958062470537E-4</v>
+        <v>-1.4551108841256706E-4</v>
       </c>
       <c r="Q3">
-        <v>-6.8858146433211026E-5</v>
+        <v>-1.0417131349499636E-4</v>
       </c>
       <c r="R3">
-        <v>-7.3548729847763979E-6</v>
+        <v>-7.3221955988590315E-6</v>
       </c>
       <c r="S3">
-        <v>1.3799549867810098E-4</v>
+        <v>1.2566976776982338E-4</v>
       </c>
       <c r="T3">
-        <v>4.0670891115141775E-5</v>
+        <v>5.4873233387122116E-5</v>
       </c>
       <c r="U3">
-        <v>-2.8281868362257986E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+        <v>-3.0519568684057924E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="11">
-        <v>5.0728270181493143E-4</v>
+      <c r="B4" s="25">
+        <v>5.4509671618026907E-4</v>
       </c>
       <c r="C4">
-        <v>5.385239257324155E-7</v>
+        <v>6.2903889187067425E-8</v>
       </c>
       <c r="D4">
-        <v>-1.579756037868155E-6</v>
+        <v>-1.6840198780767895E-6</v>
       </c>
       <c r="E4">
-        <v>1.8037711332506889E-8</v>
+        <v>1.918504870638464E-8</v>
       </c>
       <c r="F4">
-        <v>-1.5192021065921627E-6</v>
+        <v>-1.097733898976017E-6</v>
       </c>
       <c r="G4">
-        <v>-1.9632206236095504E-6</v>
+        <v>-1.6832020024851031E-6</v>
       </c>
       <c r="H4">
-        <v>-5.4492161275065681E-6</v>
+        <v>-6.2687400787505819E-6</v>
       </c>
       <c r="I4">
-        <v>-5.7861507812477062E-7</v>
+        <v>-9.6931890023631259E-7</v>
       </c>
       <c r="J4">
-        <v>-1.3588650253322136E-6</v>
+        <v>-1.9604186223022399E-6</v>
       </c>
       <c r="K4">
-        <v>-9.867129262626358E-7</v>
+        <v>-1.5484689061216485E-6</v>
       </c>
       <c r="L4">
-        <v>-3.1060962714479893E-7</v>
+        <v>-1.0314278561374241E-6</v>
       </c>
       <c r="M4">
-        <v>-3.2772780459654996E-7</v>
+        <v>-1.1168606489236401E-6</v>
       </c>
       <c r="N4">
-        <v>1.8922152244031949E-6</v>
+        <v>2.7354786722752908E-6</v>
       </c>
       <c r="O4">
-        <v>5.5648644310531048E-7</v>
+        <v>6.9279578407522787E-7</v>
       </c>
       <c r="P4">
-        <v>1.3102779520860632E-6</v>
+        <v>1.598097951055223E-6</v>
       </c>
       <c r="Q4">
-        <v>6.2848334633143588E-7</v>
+        <v>9.433436812224032E-7</v>
       </c>
       <c r="R4">
-        <v>5.6822882392734265E-8</v>
+        <v>4.5165439238715589E-8</v>
       </c>
       <c r="S4">
-        <v>-1.3097671746041781E-6</v>
+        <v>-1.097985334159799E-6</v>
       </c>
       <c r="T4">
-        <v>-2.9175905460150628E-7</v>
+        <v>-3.9113027936828039E-7</v>
       </c>
       <c r="U4">
-        <v>3.1161212227438716E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+        <v>3.3782923729825076E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="13">
-        <v>6.057311270923145E-2</v>
+      <c r="B5" s="25">
+        <v>0.11163439689902137</v>
       </c>
       <c r="C5">
-        <v>-1.1858676012907478E-3</v>
+        <v>-6.5833671985596393E-4</v>
       </c>
       <c r="D5">
-        <v>1.3928743568976591E-4</v>
+        <v>8.3230982827221843E-5</v>
       </c>
       <c r="E5">
-        <v>-1.5192021065921627E-6</v>
+        <v>-1.097733898976017E-6</v>
       </c>
       <c r="F5">
-        <v>5.0053294927273808E-3</v>
+        <v>4.2028558656707002E-3</v>
       </c>
       <c r="G5">
-        <v>4.2226340550799235E-3</v>
+        <v>3.4162035765459187E-3</v>
       </c>
       <c r="H5">
-        <v>-4.0240713210033569E-4</v>
+        <v>-1.254597255356408E-3</v>
       </c>
       <c r="I5">
-        <v>-3.8466045112666629E-4</v>
+        <v>-3.1710044451433873E-5</v>
       </c>
       <c r="J5">
-        <v>-4.9793248804358737E-5</v>
+        <v>1.3472219115010225E-4</v>
       </c>
       <c r="K5">
-        <v>-2.3590079666541714E-4</v>
+        <v>-1.7840136034744908E-4</v>
       </c>
       <c r="L5">
-        <v>-6.6574936330263915E-4</v>
+        <v>7.4048868199784955E-4</v>
       </c>
       <c r="M5">
-        <v>5.31993523591184E-4</v>
+        <v>7.8189621131307828E-4</v>
       </c>
       <c r="N5">
-        <v>4.4463839919658943E-4</v>
+        <v>-5.0219466797334685E-4</v>
       </c>
       <c r="O5">
-        <v>6.5155319319773106E-4</v>
+        <v>-7.452547604900443E-4</v>
       </c>
       <c r="P5">
-        <v>6.1821647295730504E-4</v>
+        <v>-3.5960337796051424E-4</v>
       </c>
       <c r="Q5">
-        <v>3.3871748859180557E-4</v>
+        <v>-6.1749668244777422E-4</v>
       </c>
       <c r="R5">
-        <v>-8.3623128285287214E-5</v>
+        <v>7.1266926733460403E-5</v>
       </c>
       <c r="S5">
-        <v>1.1263706092372915E-3</v>
+        <v>3.5239580937457374E-4</v>
       </c>
       <c r="T5">
-        <v>6.6634345839101721E-4</v>
+        <v>-3.3797055603508358E-4</v>
       </c>
       <c r="U5">
-        <v>-4.9495886938211182E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+        <v>-5.0771179414057909E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="15">
-        <v>0.18715988995162067</v>
+      <c r="B6" s="25">
+        <v>0.16841007032160976</v>
       </c>
       <c r="C6">
-        <v>-1.4963213326963545E-3</v>
+        <v>-9.0868467049688641E-4</v>
       </c>
       <c r="D6">
-        <v>1.7973237903520813E-4</v>
+        <v>1.3566738004422516E-4</v>
       </c>
       <c r="E6">
-        <v>-1.9632206236095504E-6</v>
+        <v>-1.6832020024851031E-6</v>
       </c>
       <c r="F6">
-        <v>4.2226340550799235E-3</v>
+        <v>3.4162035765459187E-3</v>
       </c>
       <c r="G6">
-        <v>7.1954756526578277E-3</v>
+        <v>6.7084347392911614E-3</v>
       </c>
       <c r="H6">
-        <v>-4.8143940394775964E-4</v>
+        <v>-1.7599656403455648E-3</v>
       </c>
       <c r="I6">
-        <v>-5.3910298773528491E-4</v>
+        <v>-3.874988611700231E-4</v>
       </c>
       <c r="J6">
-        <v>5.9146876589762196E-5</v>
+        <v>7.4078455264415459E-4</v>
       </c>
       <c r="K6">
-        <v>-2.3507288705124962E-5</v>
+        <v>3.3540405778333571E-4</v>
       </c>
       <c r="L6">
-        <v>-1.3570541079620561E-4</v>
+        <v>1.1336310671495309E-3</v>
       </c>
       <c r="M6">
-        <v>9.9085900379980527E-4</v>
+        <v>1.352053861555805E-3</v>
       </c>
       <c r="N6">
-        <v>7.0882479171632557E-4</v>
+        <v>-2.729542105832886E-4</v>
       </c>
       <c r="O6">
-        <v>2.4444241427927092E-4</v>
+        <v>-9.5649431064722301E-4</v>
       </c>
       <c r="P6">
-        <v>3.3990991771715206E-4</v>
+        <v>-4.9093235021916586E-4</v>
       </c>
       <c r="Q6">
-        <v>2.6920762074024267E-4</v>
+        <v>-5.8726435524942221E-4</v>
       </c>
       <c r="R6">
-        <v>-2.7446815106314484E-5</v>
+        <v>9.6201056861943589E-5</v>
       </c>
       <c r="S6">
-        <v>5.9770233294524069E-4</v>
+        <v>1.5823188340985969E-4</v>
       </c>
       <c r="T6">
-        <v>3.2352374314655128E-4</v>
+        <v>-4.2655590014549277E-4</v>
       </c>
       <c r="U6">
-        <v>-6.6850914230117096E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+        <v>-6.7566344425039346E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="17">
-        <v>-0.10947845503788083</v>
+      <c r="B7" s="25">
+        <v>-0.13618106130909516</v>
       </c>
       <c r="C7">
-        <v>5.7244947427717531E-4</v>
+        <v>1.0398421251951178E-3</v>
       </c>
       <c r="D7">
-        <v>5.3952643254422019E-4</v>
+        <v>6.3274477635322528E-4</v>
       </c>
       <c r="E7">
-        <v>-5.4492161275065681E-6</v>
+        <v>-6.2687400787505819E-6</v>
       </c>
       <c r="F7">
-        <v>-4.0240713210033569E-4</v>
+        <v>-1.254597255356408E-3</v>
       </c>
       <c r="G7">
-        <v>-4.8143940394775964E-4</v>
+        <v>-1.7599656403455648E-3</v>
       </c>
       <c r="H7">
-        <v>1.5179957360988879E-2</v>
+        <v>1.7376356668216728E-2</v>
       </c>
       <c r="I7">
-        <v>3.0799861661894769E-3</v>
+        <v>3.6682462366679778E-3</v>
       </c>
       <c r="J7">
-        <v>1.0255886016339686E-3</v>
+        <v>7.6250633508130074E-4</v>
       </c>
       <c r="K7">
-        <v>3.5202068914219841E-3</v>
+        <v>3.9455100922039825E-3</v>
       </c>
       <c r="L7">
-        <v>3.8453471026128447E-3</v>
+        <v>4.3153950340825949E-3</v>
       </c>
       <c r="M7">
-        <v>3.7279299377460575E-3</v>
+        <v>3.8411769475462116E-3</v>
       </c>
       <c r="N7">
-        <v>-6.1536190295776588E-4</v>
+        <v>-6.0687310968383316E-4</v>
       </c>
       <c r="O7">
-        <v>6.5295085683645619E-4</v>
+        <v>8.7734981042798463E-4</v>
       </c>
       <c r="P7">
-        <v>-9.8860623307904516E-5</v>
+        <v>3.8211291114289593E-5</v>
       </c>
       <c r="Q7">
-        <v>-3.6475230757725997E-4</v>
+        <v>-3.8025633949231603E-4</v>
       </c>
       <c r="R7">
-        <v>-1.2090936369549483E-4</v>
+        <v>-2.1400746591108142E-4</v>
       </c>
       <c r="S7">
-        <v>-4.2646432683003698E-4</v>
+        <v>4.5920539760173503E-4</v>
       </c>
       <c r="T7">
-        <v>-6.4040915002012977E-5</v>
+        <v>8.5406518641750057E-4</v>
       </c>
       <c r="U7">
-        <v>-1.3955902873210978E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+        <v>-1.5057183738774346E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="19">
-        <v>-0.11658652236613984</v>
+      <c r="B8" s="25">
+        <v>-0.14020689188406407</v>
       </c>
       <c r="C8">
-        <v>4.6582832891776E-4</v>
+        <v>3.8922907209524535E-4</v>
       </c>
       <c r="D8">
-        <v>1.9257463740090825E-5</v>
+        <v>5.3566181898893675E-5</v>
       </c>
       <c r="E8">
-        <v>-5.7861507812477062E-7</v>
+        <v>-9.6931890023631259E-7</v>
       </c>
       <c r="F8">
-        <v>-3.8466045112666629E-4</v>
+        <v>-3.1710044451433873E-5</v>
       </c>
       <c r="G8">
-        <v>-5.3910298773528491E-4</v>
+        <v>-3.874988611700231E-4</v>
       </c>
       <c r="H8">
-        <v>3.0799861661894769E-3</v>
+        <v>3.6682462366679778E-3</v>
       </c>
       <c r="I8">
-        <v>5.0413711232380224E-3</v>
+        <v>5.1516928827844404E-3</v>
       </c>
       <c r="J8">
-        <v>5.2045406291529011E-4</v>
+        <v>1.9036225524437432E-4</v>
       </c>
       <c r="K8">
-        <v>2.7201233341224659E-3</v>
+        <v>2.3029931189768572E-3</v>
       </c>
       <c r="L8">
-        <v>3.7562322042731921E-3</v>
+        <v>3.5022343095714504E-3</v>
       </c>
       <c r="M8">
-        <v>3.7566103983827218E-3</v>
+        <v>3.6429675566175615E-3</v>
       </c>
       <c r="N8">
-        <v>-2.656233173028294E-4</v>
+        <v>1.3017051935860645E-4</v>
       </c>
       <c r="O8">
-        <v>-1.3388388733649162E-4</v>
+        <v>-1.1425486118570786E-4</v>
       </c>
       <c r="P8">
-        <v>-2.1650159541664353E-4</v>
+        <v>-1.8982019567778804E-4</v>
       </c>
       <c r="Q8">
-        <v>-8.1813627263568802E-5</v>
+        <v>1.53324629960224E-4</v>
       </c>
       <c r="R8">
-        <v>1.5989360595490749E-5</v>
+        <v>6.7680355216959229E-7</v>
       </c>
       <c r="S8">
-        <v>-4.1365909912304411E-4</v>
+        <v>-5.8556458570685282E-4</v>
       </c>
       <c r="T8">
-        <v>6.9343093257803745E-6</v>
+        <v>-1.2553819961287974E-4</v>
       </c>
       <c r="U8">
-        <v>-3.9032593379530311E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+        <v>-4.5324966123070267E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="21">
-        <v>5.9886891788871514E-2</v>
+      <c r="B9" s="25">
+        <v>-1.3162480801806738E-2</v>
       </c>
       <c r="C9">
-        <v>8.2265954675677202E-5</v>
+        <v>3.3840986030915922E-4</v>
       </c>
       <c r="D9">
-        <v>1.25309074780479E-4</v>
+        <v>1.7376225322423576E-4</v>
       </c>
       <c r="E9">
-        <v>-1.3588650253322136E-6</v>
+        <v>-1.9604186223022399E-6</v>
       </c>
       <c r="F9">
-        <v>-4.9793248804358737E-5</v>
+        <v>1.3472219115010225E-4</v>
       </c>
       <c r="G9">
-        <v>5.9146876589762196E-5</v>
+        <v>7.4078455264415459E-4</v>
       </c>
       <c r="H9">
-        <v>1.0255886016339686E-3</v>
+        <v>7.6250633508130074E-4</v>
       </c>
       <c r="I9">
-        <v>5.2045406291529011E-4</v>
+        <v>1.9036225524437432E-4</v>
       </c>
       <c r="J9">
-        <v>4.9236355037569198E-3</v>
+        <v>5.0616048781963619E-3</v>
       </c>
       <c r="K9">
-        <v>2.9197240510539938E-3</v>
+        <v>2.6841394680629351E-3</v>
       </c>
       <c r="L9">
-        <v>2.9695097744657931E-3</v>
+        <v>2.6599512293666448E-3</v>
       </c>
       <c r="M9">
-        <v>2.9058955184417387E-3</v>
+        <v>2.6729364667598629E-3</v>
       </c>
       <c r="N9">
-        <v>-1.8893462301527541E-4</v>
+        <v>-4.1680870108370873E-4</v>
       </c>
       <c r="O9">
-        <v>-2.2885403607474726E-4</v>
+        <v>-6.7839885291420777E-4</v>
       </c>
       <c r="P9">
-        <v>-2.390003209807234E-4</v>
+        <v>-3.7269203215669255E-4</v>
       </c>
       <c r="Q9">
-        <v>-2.3487745560628131E-4</v>
+        <v>-4.4358960670014985E-4</v>
       </c>
       <c r="R9">
-        <v>1.0060739511455377E-6</v>
+        <v>8.4885737988655901E-6</v>
       </c>
       <c r="S9">
-        <v>-2.3460416185829474E-5</v>
+        <v>-2.3139221459541999E-4</v>
       </c>
       <c r="T9">
-        <v>1.492848275781685E-4</v>
+        <v>-2.9711597181190344E-4</v>
       </c>
       <c r="U9">
-        <v>-5.5229325483193417E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+        <v>-6.320741529649323E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="23">
-        <v>5.0537093666334888E-2</v>
+      <c r="B10" s="25">
+        <v>2.7296273347530625E-2</v>
       </c>
       <c r="C10">
-        <v>4.1652196977584095E-4</v>
+        <v>5.3187928020223302E-4</v>
       </c>
       <c r="D10">
-        <v>1.0096491880340369E-4</v>
+        <v>1.4956347356677991E-4</v>
       </c>
       <c r="E10">
-        <v>-9.867129262626358E-7</v>
+        <v>-1.5484689061216485E-6</v>
       </c>
       <c r="F10">
-        <v>-2.3590079666541714E-4</v>
+        <v>-1.7840136034744908E-4</v>
       </c>
       <c r="G10">
-        <v>-2.3507288705124962E-5</v>
+        <v>3.3540405778333571E-4</v>
       </c>
       <c r="H10">
-        <v>3.5202068914219841E-3</v>
+        <v>3.9455100922039825E-3</v>
       </c>
       <c r="I10">
-        <v>2.7201233341224659E-3</v>
+        <v>2.3029931189768572E-3</v>
       </c>
       <c r="J10">
-        <v>2.9197240510539938E-3</v>
+        <v>2.6841394680629351E-3</v>
       </c>
       <c r="K10">
-        <v>6.9417229305080014E-3</v>
+        <v>6.8480919609876642E-3</v>
       </c>
       <c r="L10">
-        <v>4.8440682272055729E-3</v>
+        <v>4.3986422678949618E-3</v>
       </c>
       <c r="M10">
-        <v>4.8746577934688853E-3</v>
+        <v>4.4237015031167023E-3</v>
       </c>
       <c r="N10">
-        <v>1.4992447392773935E-4</v>
+        <v>9.969197527839261E-5</v>
       </c>
       <c r="O10">
-        <v>-6.4441191086618901E-5</v>
+        <v>-2.1197287157523987E-4</v>
       </c>
       <c r="P10">
-        <v>2.8613740357959E-4</v>
+        <v>2.7191283890784599E-4</v>
       </c>
       <c r="Q10">
-        <v>1.6588085679227057E-4</v>
+        <v>2.6190463424618192E-4</v>
       </c>
       <c r="R10">
-        <v>2.5931876135510637E-5</v>
+        <v>2.8646931320398632E-5</v>
       </c>
       <c r="S10">
-        <v>3.2059681751648255E-4</v>
+        <v>1.1665781225125149E-4</v>
       </c>
       <c r="T10">
-        <v>-1.6369730713043304E-4</v>
+        <v>-4.4250881163084227E-4</v>
       </c>
       <c r="U10">
-        <v>-8.1121031498114556E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+        <v>-8.7736736729315621E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A11" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="25">
-        <v>-2.9761093325238484E-2</v>
+        <v>-6.0860125956999939E-2</v>
       </c>
       <c r="C11">
-        <v>2.3788177271647789E-4</v>
+        <v>4.501254327166738E-5</v>
       </c>
       <c r="D11">
-        <v>3.0089269188631309E-5</v>
+        <v>9.6594925385681471E-5</v>
       </c>
       <c r="E11">
-        <v>-3.1060962714479893E-7</v>
+        <v>-1.0314278561374241E-6</v>
       </c>
       <c r="F11">
-        <v>-6.6574936330263915E-4</v>
+        <v>7.4048868199784955E-4</v>
       </c>
       <c r="G11">
-        <v>-1.3570541079620561E-4</v>
+        <v>1.1336310671495309E-3</v>
       </c>
       <c r="H11">
-        <v>3.8453471026128447E-3</v>
+        <v>4.3153950340825949E-3</v>
       </c>
       <c r="I11">
-        <v>3.7562322042731921E-3</v>
+        <v>3.5022343095714504E-3</v>
       </c>
       <c r="J11">
-        <v>2.9695097744657931E-3</v>
+        <v>2.6599512293666448E-3</v>
       </c>
       <c r="K11">
-        <v>4.8440682272055729E-3</v>
+        <v>4.3986422678949618E-3</v>
       </c>
       <c r="L11">
-        <v>8.2611870345047494E-3</v>
+        <v>8.0953175255528663E-3</v>
       </c>
       <c r="M11">
-        <v>5.5144310841611643E-3</v>
+        <v>5.5022994313384133E-3</v>
       </c>
       <c r="N11">
-        <v>-4.3617600828336827E-4</v>
+        <v>-4.9936863625782034E-4</v>
       </c>
       <c r="O11">
-        <v>-1.5542134782374397E-5</v>
+        <v>9.4777891995043899E-5</v>
       </c>
       <c r="P11">
-        <v>-1.3100946519200522E-4</v>
+        <v>2.2038475770486902E-4</v>
       </c>
       <c r="Q11">
-        <v>-5.4788366512418737E-4</v>
+        <v>-3.3048499094696189E-4</v>
       </c>
       <c r="R11">
-        <v>1.1286350936691859E-4</v>
+        <v>5.0532427042557291E-5</v>
       </c>
       <c r="S11">
-        <v>-3.691953923569204E-4</v>
+        <v>1.9382454694457236E-4</v>
       </c>
       <c r="T11">
-        <v>-2.2998767743689832E-4</v>
+        <v>-1.6639888794146721E-4</v>
       </c>
       <c r="U11">
-        <v>-7.951159995955177E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+        <v>-9.1520404065123552E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="27">
-        <v>-0.2209824167001809</v>
+      <c r="B12" s="25">
+        <v>-0.19497641053060574</v>
       </c>
       <c r="C12">
-        <v>-1.6847836065921911E-4</v>
+        <v>6.7744834056419315E-5</v>
       </c>
       <c r="D12">
-        <v>3.3080500878126737E-5</v>
+        <v>9.5020011829085151E-5</v>
       </c>
       <c r="E12">
-        <v>-3.2772780459654996E-7</v>
+        <v>-1.1168606489236401E-6</v>
       </c>
       <c r="F12">
-        <v>5.31993523591184E-4</v>
+        <v>7.8189621131307828E-4</v>
       </c>
       <c r="G12">
-        <v>9.9085900379980527E-4</v>
+        <v>1.352053861555805E-3</v>
       </c>
       <c r="H12">
-        <v>3.7279299377460575E-3</v>
+        <v>3.8411769475462116E-3</v>
       </c>
       <c r="I12">
-        <v>3.7566103983827218E-3</v>
+        <v>3.6429675566175615E-3</v>
       </c>
       <c r="J12">
-        <v>2.9058955184417387E-3</v>
+        <v>2.6729364667598629E-3</v>
       </c>
       <c r="K12">
-        <v>4.8746577934688853E-3</v>
+        <v>4.4237015031167023E-3</v>
       </c>
       <c r="L12">
-        <v>5.5144310841611643E-3</v>
+        <v>5.5022994313384133E-3</v>
       </c>
       <c r="M12">
-        <v>1.0242132313378081E-2</v>
+        <v>1.0844732440375947E-2</v>
       </c>
       <c r="N12">
-        <v>5.5763913512240585E-4</v>
+        <v>4.5613500047849038E-4</v>
       </c>
       <c r="O12">
-        <v>1.9637050581271936E-4</v>
+        <v>-5.9445953998729368E-4</v>
       </c>
       <c r="P12">
-        <v>6.8164276188616667E-4</v>
+        <v>2.6979823274722505E-4</v>
       </c>
       <c r="Q12">
-        <v>3.3823339431275981E-4</v>
+        <v>1.6622733068950152E-5</v>
       </c>
       <c r="R12">
-        <v>-2.8335197532666811E-5</v>
+        <v>1.7044923090510844E-5</v>
       </c>
       <c r="S12">
-        <v>-1.7798065973280756E-4</v>
+        <v>-4.5266540741604989E-4</v>
       </c>
       <c r="T12">
-        <v>2.4491779651219115E-4</v>
+        <v>-4.6427663376211572E-4</v>
       </c>
       <c r="U12">
-        <v>-7.0050918283953503E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+        <v>-8.5770080009076946E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="29">
-        <v>-6.1078098977600019E-2</v>
+      <c r="B13" s="25">
+        <v>-0.13479449392538281</v>
       </c>
       <c r="C13">
-        <v>-3.2578394060532134E-4</v>
+        <v>-3.2194673501378457E-5</v>
       </c>
       <c r="D13">
-        <v>-1.7059454991871E-4</v>
+        <v>-2.6032021345152021E-4</v>
       </c>
       <c r="E13">
-        <v>1.8922152244031949E-6</v>
+        <v>2.7354786722752908E-6</v>
       </c>
       <c r="F13">
-        <v>4.4463839919658943E-4</v>
+        <v>-5.0219466797334685E-4</v>
       </c>
       <c r="G13">
-        <v>7.0882479171632557E-4</v>
+        <v>-2.729542105832886E-4</v>
       </c>
       <c r="H13">
-        <v>-6.1536190295776588E-4</v>
+        <v>-6.0687310968383316E-4</v>
       </c>
       <c r="I13">
-        <v>-2.656233173028294E-4</v>
+        <v>1.3017051935860645E-4</v>
       </c>
       <c r="J13">
-        <v>-1.8893462301527541E-4</v>
+        <v>-4.1680870108370873E-4</v>
       </c>
       <c r="K13">
-        <v>1.4992447392773935E-4</v>
+        <v>9.969197527839261E-5</v>
       </c>
       <c r="L13">
-        <v>-4.3617600828336827E-4</v>
+        <v>-4.9936863625782034E-4</v>
       </c>
       <c r="M13">
-        <v>5.5763913512240585E-4</v>
+        <v>4.5613500047849038E-4</v>
       </c>
       <c r="N13">
-        <v>6.628607895652722E-3</v>
+        <v>6.8715582442637462E-3</v>
       </c>
       <c r="O13">
-        <v>3.1626160351023763E-3</v>
+        <v>3.2802969139534848E-3</v>
       </c>
       <c r="P13">
-        <v>3.1362804323503686E-3</v>
+        <v>3.1722143125974176E-3</v>
       </c>
       <c r="Q13">
-        <v>3.1642254580744192E-3</v>
+        <v>3.2672824562947401E-3</v>
       </c>
       <c r="R13">
-        <v>-1.557031095469468E-5</v>
+        <v>2.6341586352290341E-5</v>
       </c>
       <c r="S13">
-        <v>-1.0093463024308741E-3</v>
+        <v>-1.2057844710946588E-3</v>
       </c>
       <c r="T13">
-        <v>1.6528891332665474E-4</v>
+        <v>2.5876732715377935E-5</v>
       </c>
       <c r="U13">
-        <v>6.2472707841026802E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+        <v>2.4838391423673617E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="31">
-        <v>-2.2517055835463092E-2</v>
+      <c r="B14" s="25">
+        <v>-2.5786015515021195E-2</v>
       </c>
       <c r="C14">
-        <v>-4.356771982730193E-6</v>
+        <v>2.8035150865206548E-4</v>
       </c>
       <c r="D14">
-        <v>-5.9001300390501251E-5</v>
+        <v>-7.4081630115542248E-5</v>
       </c>
       <c r="E14">
-        <v>5.5648644310531048E-7</v>
+        <v>6.9279578407522787E-7</v>
       </c>
       <c r="F14">
-        <v>6.5155319319773106E-4</v>
+        <v>-7.452547604900443E-4</v>
       </c>
       <c r="G14">
-        <v>2.4444241427927092E-4</v>
+        <v>-9.5649431064722301E-4</v>
       </c>
       <c r="H14">
-        <v>6.5295085683645619E-4</v>
+        <v>8.7734981042798463E-4</v>
       </c>
       <c r="I14">
-        <v>-1.3388388733649162E-4</v>
+        <v>-1.1425486118570786E-4</v>
       </c>
       <c r="J14">
-        <v>-2.2885403607474726E-4</v>
+        <v>-6.7839885291420777E-4</v>
       </c>
       <c r="K14">
-        <v>-6.4441191086618901E-5</v>
+        <v>-2.1197287157523987E-4</v>
       </c>
       <c r="L14">
-        <v>-1.5542134782374397E-5</v>
+        <v>9.4777891995043899E-5</v>
       </c>
       <c r="M14">
-        <v>1.9637050581271936E-4</v>
+        <v>-5.9445953998729368E-4</v>
       </c>
       <c r="N14">
-        <v>3.1626160351023763E-3</v>
+        <v>3.2802969139534848E-3</v>
       </c>
       <c r="O14">
-        <v>7.531585521970848E-3</v>
+        <v>8.1341614158806363E-3</v>
       </c>
       <c r="P14">
-        <v>3.1426035821396853E-3</v>
+        <v>3.1988933798100952E-3</v>
       </c>
       <c r="Q14">
-        <v>3.2481549755002427E-3</v>
+        <v>3.3213188255885855E-3</v>
       </c>
       <c r="R14">
-        <v>-6.9707015162258481E-5</v>
+        <v>-1.3624330820505285E-5</v>
       </c>
       <c r="S14">
-        <v>-7.6217854528358778E-4</v>
+        <v>-9.9974219834847813E-4</v>
       </c>
       <c r="T14">
-        <v>2.4281640035584719E-4</v>
+        <v>-1.2159609146559765E-4</v>
       </c>
       <c r="U14">
-        <v>-8.9773549569123999E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+        <v>-4.3084841826589328E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="33">
-        <v>-1.7809368436740365E-2</v>
+      <c r="B15" s="25">
+        <v>-2.2877060038614207E-2</v>
       </c>
       <c r="C15">
-        <v>-2.1361637455647744E-4</v>
+        <v>-1.8798732344615606E-5</v>
       </c>
       <c r="D15">
-        <v>-1.1733958062470537E-4</v>
+        <v>-1.4551108841256706E-4</v>
       </c>
       <c r="E15">
-        <v>1.3102779520860632E-6</v>
+        <v>1.598097951055223E-6</v>
       </c>
       <c r="F15">
-        <v>6.1821647295730504E-4</v>
+        <v>-3.5960337796051424E-4</v>
       </c>
       <c r="G15">
-        <v>3.3990991771715206E-4</v>
+        <v>-4.9093235021916586E-4</v>
       </c>
       <c r="H15">
-        <v>-9.8860623307904516E-5</v>
+        <v>3.8211291114289593E-5</v>
       </c>
       <c r="I15">
-        <v>-2.1650159541664353E-4</v>
+        <v>-1.8982019567778804E-4</v>
       </c>
       <c r="J15">
-        <v>-2.390003209807234E-4</v>
+        <v>-3.7269203215669255E-4</v>
       </c>
       <c r="K15">
-        <v>2.8613740357959E-4</v>
+        <v>2.7191283890784599E-4</v>
       </c>
       <c r="L15">
-        <v>-1.3100946519200522E-4</v>
+        <v>2.2038475770486902E-4</v>
       </c>
       <c r="M15">
-        <v>6.8164276188616667E-4</v>
+        <v>2.6979823274722505E-4</v>
       </c>
       <c r="N15">
-        <v>3.1362804323503686E-3</v>
+        <v>3.1722143125974176E-3</v>
       </c>
       <c r="O15">
-        <v>3.1426035821396853E-3</v>
+        <v>3.1988933798100952E-3</v>
       </c>
       <c r="P15">
-        <v>6.0491769955942467E-3</v>
+        <v>6.4103397651166507E-3</v>
       </c>
       <c r="Q15">
-        <v>3.1812631500893781E-3</v>
+        <v>3.2162791087534202E-3</v>
       </c>
       <c r="R15">
-        <v>-2.3885756178026749E-5</v>
+        <v>5.2616224396789926E-5</v>
       </c>
       <c r="S15">
-        <v>-9.0747636681825681E-4</v>
+        <v>-1.354074844482999E-3</v>
       </c>
       <c r="T15">
-        <v>4.0717228572436683E-4</v>
+        <v>-8.0409810638105723E-5</v>
       </c>
       <c r="U15">
-        <v>-6.2033338862397896E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+        <v>-6.591446019666553E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A16" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="35">
-        <v>-0.26995933425034535</v>
+      <c r="B16" s="25">
+        <v>-0.31275047781772625</v>
       </c>
       <c r="C16">
-        <v>-4.8475934520714295E-4</v>
+        <v>-4.1905281142000925E-4</v>
       </c>
       <c r="D16">
-        <v>-6.8858146433211026E-5</v>
+        <v>-1.0417131349499636E-4</v>
       </c>
       <c r="E16">
-        <v>6.2848334633143588E-7</v>
+        <v>9.433436812224032E-7</v>
       </c>
       <c r="F16">
-        <v>3.3871748859180557E-4</v>
+        <v>-6.1749668244777422E-4</v>
       </c>
       <c r="G16">
-        <v>2.6920762074024267E-4</v>
+        <v>-5.8726435524942221E-4</v>
       </c>
       <c r="H16">
-        <v>-3.6475230757725997E-4</v>
+        <v>-3.8025633949231603E-4</v>
       </c>
       <c r="I16">
-        <v>-8.1813627263568802E-5</v>
+        <v>1.53324629960224E-4</v>
       </c>
       <c r="J16">
-        <v>-2.3487745560628131E-4</v>
+        <v>-4.4358960670014985E-4</v>
       </c>
       <c r="K16">
-        <v>1.6588085679227057E-4</v>
+        <v>2.6190463424618192E-4</v>
       </c>
       <c r="L16">
-        <v>-5.4788366512418737E-4</v>
+        <v>-3.3048499094696189E-4</v>
       </c>
       <c r="M16">
-        <v>3.3823339431275981E-4</v>
+        <v>1.6622733068950152E-5</v>
       </c>
       <c r="N16">
-        <v>3.1642254580744192E-3</v>
+        <v>3.2672824562947401E-3</v>
       </c>
       <c r="O16">
-        <v>3.2481549755002427E-3</v>
+        <v>3.3213188255885855E-3</v>
       </c>
       <c r="P16">
-        <v>3.1812631500893781E-3</v>
+        <v>3.2162791087534202E-3</v>
       </c>
       <c r="Q16">
-        <v>4.7638483085926664E-3</v>
+        <v>5.0086355006987654E-3</v>
       </c>
       <c r="R16">
-        <v>-7.0909190451735879E-5</v>
+        <v>8.9895667344076042E-7</v>
       </c>
       <c r="S16">
-        <v>-8.3275828343985997E-4</v>
+        <v>-1.2672851715454971E-3</v>
       </c>
       <c r="T16">
-        <v>5.6748293006257504E-4</v>
+        <v>4.4897092409169198E-5</v>
       </c>
       <c r="U16">
-        <v>-6.588342203894999E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+        <v>1.944312385144573E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A17" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="37">
-        <v>7.4377079473265315E-3</v>
+      <c r="B17" s="25">
+        <v>4.1226760369083666E-3</v>
       </c>
       <c r="C17">
-        <v>1.8379265412059729E-5</v>
+        <v>-3.6781134066994552E-5</v>
       </c>
       <c r="D17">
-        <v>-7.3548729847763979E-6</v>
+        <v>-7.3221955988590315E-6</v>
       </c>
       <c r="E17">
-        <v>5.6822882392734265E-8</v>
+        <v>4.5165439238715589E-8</v>
       </c>
       <c r="F17">
-        <v>-8.3623128285287214E-5</v>
+        <v>7.1266926733460403E-5</v>
       </c>
       <c r="G17">
-        <v>-2.7446815106314484E-5</v>
+        <v>9.6201056861943589E-5</v>
       </c>
       <c r="H17">
-        <v>-1.2090936369549483E-4</v>
+        <v>-2.1400746591108142E-4</v>
       </c>
       <c r="I17">
-        <v>1.5989360595490749E-5</v>
+        <v>6.7680355216959229E-7</v>
       </c>
       <c r="J17">
-        <v>1.0060739511455377E-6</v>
+        <v>8.4885737988655901E-6</v>
       </c>
       <c r="K17">
-        <v>2.5931876135510637E-5</v>
+        <v>2.8646931320398632E-5</v>
       </c>
       <c r="L17">
-        <v>1.1286350936691859E-4</v>
+        <v>5.0532427042557291E-5</v>
       </c>
       <c r="M17">
-        <v>-2.8335197532666811E-5</v>
+        <v>1.7044923090510844E-5</v>
       </c>
       <c r="N17">
-        <v>-1.557031095469468E-5</v>
+        <v>2.6341586352290341E-5</v>
       </c>
       <c r="O17">
-        <v>-6.9707015162258481E-5</v>
+        <v>-1.3624330820505285E-5</v>
       </c>
       <c r="P17">
-        <v>-2.3885756178026749E-5</v>
+        <v>5.2616224396789926E-5</v>
       </c>
       <c r="Q17">
-        <v>-7.0909190451735879E-5</v>
+        <v>8.9895667344076042E-7</v>
       </c>
       <c r="R17">
-        <v>5.1861971997839391E-5</v>
+        <v>5.4485355745443904E-5</v>
       </c>
       <c r="S17">
-        <v>-2.0854081863283991E-4</v>
+        <v>-2.159801463295682E-4</v>
       </c>
       <c r="T17">
-        <v>-2.539280873928853E-4</v>
+        <v>-2.6724386220385179E-4</v>
       </c>
       <c r="U17">
-        <v>-5.89403319982387E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+        <v>-7.2301487277260626E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A18" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="39">
-        <v>8.4339706514063473E-2</v>
+      <c r="B18" s="25">
+        <v>0.14602180122265909</v>
       </c>
       <c r="C18">
-        <v>-4.0182035420971397E-4</v>
+        <v>1.6000218189488069E-4</v>
       </c>
       <c r="D18">
-        <v>1.3799549867810098E-4</v>
+        <v>1.2566976776982338E-4</v>
       </c>
       <c r="E18">
-        <v>-1.3097671746041781E-6</v>
+        <v>-1.097985334159799E-6</v>
       </c>
       <c r="F18">
-        <v>1.1263706092372915E-3</v>
+        <v>3.5239580937457374E-4</v>
       </c>
       <c r="G18">
-        <v>5.9770233294524069E-4</v>
+        <v>1.5823188340985969E-4</v>
       </c>
       <c r="H18">
-        <v>-4.2646432683003698E-4</v>
+        <v>4.5920539760173503E-4</v>
       </c>
       <c r="I18">
-        <v>-4.1365909912304411E-4</v>
+        <v>-5.8556458570685282E-4</v>
       </c>
       <c r="J18">
-        <v>-2.3460416185829474E-5</v>
+        <v>-2.3139221459541999E-4</v>
       </c>
       <c r="K18">
-        <v>3.2059681751648255E-4</v>
+        <v>1.1665781225125149E-4</v>
       </c>
       <c r="L18">
-        <v>-3.691953923569204E-4</v>
+        <v>1.9382454694457236E-4</v>
       </c>
       <c r="M18">
-        <v>-1.7798065973280756E-4</v>
+        <v>-4.5266540741604989E-4</v>
       </c>
       <c r="N18">
-        <v>-1.0093463024308741E-3</v>
+        <v>-1.2057844710946588E-3</v>
       </c>
       <c r="O18">
-        <v>-7.6217854528358778E-4</v>
+        <v>-9.9974219834847813E-4</v>
       </c>
       <c r="P18">
-        <v>-9.0747636681825681E-4</v>
+        <v>-1.354074844482999E-3</v>
       </c>
       <c r="Q18">
-        <v>-8.3275828343985997E-4</v>
+        <v>-1.2672851715454971E-3</v>
       </c>
       <c r="R18">
-        <v>-2.0854081863283991E-4</v>
+        <v>-2.159801463295682E-4</v>
       </c>
       <c r="S18">
-        <v>7.4465421154925639E-3</v>
+        <v>8.1915340269785759E-3</v>
       </c>
       <c r="T18">
-        <v>1.7240265949346912E-3</v>
+        <v>1.7546591075802318E-3</v>
       </c>
       <c r="U18">
-        <v>-2.4948637892070573E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+        <v>4.8719291778593195E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A19" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="41">
-        <v>1.5154199031807356E-2</v>
+      <c r="B19" s="25">
+        <v>8.6856095674124167E-2</v>
       </c>
       <c r="C19">
-        <v>-4.7872568289521308E-5</v>
+        <v>3.3725991723435544E-4</v>
       </c>
       <c r="D19">
-        <v>4.0670891115141775E-5</v>
+        <v>5.4873233387122116E-5</v>
       </c>
       <c r="E19">
-        <v>-2.9175905460150628E-7</v>
+        <v>-3.9113027936828039E-7</v>
       </c>
       <c r="F19">
-        <v>6.6634345839101721E-4</v>
+        <v>-3.3797055603508358E-4</v>
       </c>
       <c r="G19">
-        <v>3.2352374314655128E-4</v>
+        <v>-4.2655590014549277E-4</v>
       </c>
       <c r="H19">
-        <v>-6.4040915002012977E-5</v>
+        <v>8.5406518641750057E-4</v>
       </c>
       <c r="I19">
-        <v>6.9343093257803745E-6</v>
+        <v>-1.2553819961287974E-4</v>
       </c>
       <c r="J19">
-        <v>1.492848275781685E-4</v>
+        <v>-2.9711597181190344E-4</v>
       </c>
       <c r="K19">
-        <v>-1.6369730713043304E-4</v>
+        <v>-4.4250881163084227E-4</v>
       </c>
       <c r="L19">
-        <v>-2.2998767743689832E-4</v>
+        <v>-1.6639888794146721E-4</v>
       </c>
       <c r="M19">
-        <v>2.4491779651219115E-4</v>
+        <v>-4.6427663376211572E-4</v>
       </c>
       <c r="N19">
-        <v>1.6528891332665474E-4</v>
+        <v>2.5876732715377935E-5</v>
       </c>
       <c r="O19">
-        <v>2.4281640035584719E-4</v>
+        <v>-1.2159609146559765E-4</v>
       </c>
       <c r="P19">
-        <v>4.0717228572436683E-4</v>
+        <v>-8.0409810638105723E-5</v>
       </c>
       <c r="Q19">
-        <v>5.6748293006257504E-4</v>
+        <v>4.4897092409169198E-5</v>
       </c>
       <c r="R19">
-        <v>-2.539280873928853E-4</v>
+        <v>-2.6724386220385179E-4</v>
       </c>
       <c r="S19">
-        <v>1.7240265949346912E-3</v>
+        <v>1.7546591075802318E-3</v>
       </c>
       <c r="T19">
-        <v>6.3440235990504792E-3</v>
+        <v>7.0553519830877202E-3</v>
       </c>
       <c r="U19">
-        <v>1.5772945953018672E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+        <v>2.4190098966119832E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A20" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="43">
-        <v>-3.0272873906159488</v>
+      <c r="B20" s="25">
+        <v>-2.8458209477899756</v>
       </c>
       <c r="C20">
-        <v>-2.1802782551923021E-5</v>
+        <v>-1.0933608305128194E-3</v>
       </c>
       <c r="D20">
-        <v>-2.8281868362257986E-3</v>
+        <v>-3.0519568684057924E-3</v>
       </c>
       <c r="E20">
-        <v>3.1161212227438716E-5</v>
+        <v>3.3782923729825076E-5</v>
       </c>
       <c r="F20">
-        <v>-4.9495886938211182E-3</v>
+        <v>-5.0771179414057909E-3</v>
       </c>
       <c r="G20">
-        <v>-6.6850914230117096E-3</v>
+        <v>-6.7566344425039346E-3</v>
       </c>
       <c r="H20">
-        <v>-1.3955902873210978E-2</v>
+        <v>-1.5057183738774346E-2</v>
       </c>
       <c r="I20">
-        <v>-3.9032593379530311E-3</v>
+        <v>-4.5324966123070267E-3</v>
       </c>
       <c r="J20">
-        <v>-5.5229325483193417E-3</v>
+        <v>-6.320741529649323E-3</v>
       </c>
       <c r="K20">
-        <v>-8.1121031498114556E-3</v>
+        <v>-8.7736736729315621E-3</v>
       </c>
       <c r="L20">
-        <v>-7.951159995955177E-3</v>
+        <v>-9.1520404065123552E-3</v>
       </c>
       <c r="M20">
-        <v>-7.0050918283953503E-3</v>
+        <v>-8.5770080009076946E-3</v>
       </c>
       <c r="N20">
-        <v>6.2472707841026802E-4</v>
+        <v>2.4838391423673617E-3</v>
       </c>
       <c r="O20">
-        <v>-8.9773549569123999E-4</v>
+        <v>-4.3084841826589328E-4</v>
       </c>
       <c r="P20">
-        <v>-6.2033338862397896E-4</v>
+        <v>-6.591446019666553E-4</v>
       </c>
       <c r="Q20">
-        <v>-6.588342203894999E-5</v>
+        <v>1.944312385144573E-4</v>
       </c>
       <c r="R20">
-        <v>-5.89403319982387E-4</v>
+        <v>-7.2301487277260626E-4</v>
       </c>
       <c r="S20">
-        <v>-2.4948637892070573E-4</v>
+        <v>4.8719291778593195E-4</v>
       </c>
       <c r="T20">
-        <v>1.5772945953018672E-3</v>
+        <v>2.4190098966119832E-3</v>
       </c>
       <c r="U20">
-        <v>8.0198078543091564E-2</v>
+        <v>8.7739595383006422E-2</v>
       </c>
     </row>
   </sheetData>

--- a/input/reg_leaveParentalHome.xlsx
+++ b/input/reg_leaveParentalHome.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA03DEA5-803D-406B-A1EB-4277D28EB6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2CA7DF-DF72-466B-B299-579B57BD38D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="17363" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -923,64 +923,64 @@
         <v>8</v>
       </c>
       <c r="B2" s="25">
-        <v>-2.4134932775063279E-2</v>
+        <v>-3.153886901475092E-2</v>
       </c>
       <c r="C2">
-        <v>2.6786995283584469E-3</v>
+        <v>2.7138111712166043E-3</v>
       </c>
       <c r="D2">
-        <v>4.6797951520704662E-6</v>
+        <v>-4.4042173700765126E-5</v>
       </c>
       <c r="E2">
-        <v>6.2903889187067425E-8</v>
+        <v>5.212442662352249E-7</v>
       </c>
       <c r="F2">
-        <v>-6.5833671985596393E-4</v>
+        <v>-1.1998189861514817E-3</v>
       </c>
       <c r="G2">
-        <v>-9.0868467049688641E-4</v>
+        <v>-1.5035471558158648E-3</v>
       </c>
       <c r="H2">
-        <v>1.0398421251951178E-3</v>
+        <v>7.4228351539488795E-4</v>
       </c>
       <c r="I2">
-        <v>3.8922907209524535E-4</v>
+        <v>4.9803164240136747E-4</v>
       </c>
       <c r="J2">
-        <v>3.3840986030915922E-4</v>
+        <v>5.2432953270923274E-5</v>
       </c>
       <c r="K2">
-        <v>5.3187928020223302E-4</v>
+        <v>4.1024269281039988E-4</v>
       </c>
       <c r="L2">
-        <v>4.501254327166738E-5</v>
+        <v>2.7414811055102438E-4</v>
       </c>
       <c r="M2">
-        <v>6.7744834056419315E-5</v>
+        <v>-6.6563500081986623E-5</v>
       </c>
       <c r="N2">
-        <v>-3.2194673501378457E-5</v>
+        <v>-3.6173457267957092E-4</v>
       </c>
       <c r="O2">
-        <v>2.8035150865206548E-4</v>
+        <v>1.0019547275450218E-5</v>
       </c>
       <c r="P2">
-        <v>-1.8798732344615606E-5</v>
+        <v>-2.2551152827917818E-4</v>
       </c>
       <c r="Q2">
-        <v>-4.1905281142000925E-4</v>
+        <v>-4.8017637868189239E-4</v>
       </c>
       <c r="R2">
-        <v>-3.6781134066994552E-5</v>
+        <v>1.853372786523339E-5</v>
       </c>
       <c r="S2">
-        <v>1.6000218189488069E-4</v>
+        <v>-4.2006908702979669E-4</v>
       </c>
       <c r="T2">
-        <v>3.3725991723435544E-4</v>
+        <v>-4.6247554095766414E-5</v>
       </c>
       <c r="U2">
-        <v>-1.0933608305128194E-3</v>
+        <v>-1.3054835906601295E-4</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.45">
@@ -988,64 +988,64 @@
         <v>9</v>
       </c>
       <c r="B3" s="25">
-        <v>-5.1391121246262871E-3</v>
+        <v>1.1165347351412974E-3</v>
       </c>
       <c r="C3">
-        <v>4.6797951520704662E-6</v>
+        <v>-4.4042173700765126E-5</v>
       </c>
       <c r="D3">
-        <v>1.5158971216166725E-4</v>
+        <v>1.4715148324672997E-4</v>
       </c>
       <c r="E3">
-        <v>-1.6840198780767895E-6</v>
+        <v>-1.630684692121317E-6</v>
       </c>
       <c r="F3">
-        <v>8.3230982827221843E-5</v>
+        <v>1.4006426051449186E-4</v>
       </c>
       <c r="G3">
-        <v>1.3566738004422516E-4</v>
+        <v>2.0550593255125592E-4</v>
       </c>
       <c r="H3">
-        <v>6.3274477635322528E-4</v>
+        <v>5.6595805211045319E-4</v>
       </c>
       <c r="I3">
-        <v>5.3566181898893675E-5</v>
+        <v>4.9942544109857949E-7</v>
       </c>
       <c r="J3">
-        <v>1.7376225322423576E-4</v>
+        <v>9.9448508742321247E-5</v>
       </c>
       <c r="K3">
-        <v>1.4956347356677991E-4</v>
+        <v>9.3426551069589805E-5</v>
       </c>
       <c r="L3">
-        <v>9.6594925385681471E-5</v>
+        <v>7.4750750814727828E-6</v>
       </c>
       <c r="M3">
-        <v>9.5020011829085151E-5</v>
+        <v>6.0544215738963635E-6</v>
       </c>
       <c r="N3">
-        <v>-2.6032021345152021E-4</v>
+        <v>-1.613455948566698E-4</v>
       </c>
       <c r="O3">
-        <v>-7.4081630115542248E-5</v>
+        <v>-5.2838722402124812E-5</v>
       </c>
       <c r="P3">
-        <v>-1.4551108841256706E-4</v>
+        <v>-1.2163936475016344E-4</v>
       </c>
       <c r="Q3">
-        <v>-1.0417131349499636E-4</v>
+        <v>-6.7730808577116291E-5</v>
       </c>
       <c r="R3">
-        <v>-7.3221955988590315E-6</v>
+        <v>-9.9681143497016471E-6</v>
       </c>
       <c r="S3">
-        <v>1.2566976776982338E-4</v>
+        <v>1.4618694956358938E-4</v>
       </c>
       <c r="T3">
-        <v>5.4873233387122116E-5</v>
+        <v>4.9821301341587774E-5</v>
       </c>
       <c r="U3">
-        <v>-3.0519568684057924E-3</v>
+        <v>-2.9049888381541748E-3</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.45">
@@ -1053,64 +1053,64 @@
         <v>10</v>
       </c>
       <c r="B4" s="25">
-        <v>5.4509671618026907E-4</v>
+        <v>4.8199728365463533E-4</v>
       </c>
       <c r="C4">
-        <v>6.2903889187067425E-8</v>
+        <v>5.212442662352249E-7</v>
       </c>
       <c r="D4">
-        <v>-1.6840198780767895E-6</v>
+        <v>-1.630684692121317E-6</v>
       </c>
       <c r="E4">
-        <v>1.918504870638464E-8</v>
+        <v>1.8524520065848634E-8</v>
       </c>
       <c r="F4">
-        <v>-1.097733898976017E-6</v>
+        <v>-1.5248831375794918E-6</v>
       </c>
       <c r="G4">
-        <v>-1.6832020024851031E-6</v>
+        <v>-2.2337569665263269E-6</v>
       </c>
       <c r="H4">
-        <v>-6.2687400787505819E-6</v>
+        <v>-5.6366614763165203E-6</v>
       </c>
       <c r="I4">
-        <v>-9.6931890023631259E-7</v>
+        <v>-4.2419608677183134E-7</v>
       </c>
       <c r="J4">
-        <v>-1.9604186223022399E-6</v>
+        <v>-1.052023043085295E-6</v>
       </c>
       <c r="K4">
-        <v>-1.5484689061216485E-6</v>
+        <v>-8.6891559200697434E-7</v>
       </c>
       <c r="L4">
-        <v>-1.0314278561374241E-6</v>
+        <v>-5.8357044489944793E-8</v>
       </c>
       <c r="M4">
-        <v>-1.1168606489236401E-6</v>
+        <v>-1.8073561290011378E-8</v>
       </c>
       <c r="N4">
-        <v>2.7354786722752908E-6</v>
+        <v>1.7971483341677467E-6</v>
       </c>
       <c r="O4">
-        <v>6.9279578407522787E-7</v>
+        <v>4.9783687837146108E-7</v>
       </c>
       <c r="P4">
-        <v>1.598097951055223E-6</v>
+        <v>1.3646827261289905E-6</v>
       </c>
       <c r="Q4">
-        <v>9.433436812224032E-7</v>
+        <v>6.1802787958010054E-7</v>
       </c>
       <c r="R4">
-        <v>4.5165439238715589E-8</v>
+        <v>8.0177784533272014E-8</v>
       </c>
       <c r="S4">
-        <v>-1.097985334159799E-6</v>
+        <v>-1.3498100560635599E-6</v>
       </c>
       <c r="T4">
-        <v>-3.9113027936828039E-7</v>
+        <v>-3.4963450553689366E-7</v>
       </c>
       <c r="U4">
-        <v>3.3782923729825076E-5</v>
+        <v>3.1840598958818253E-5</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
@@ -1118,64 +1118,64 @@
         <v>11</v>
       </c>
       <c r="B5" s="25">
-        <v>0.11163439689902137</v>
+        <v>6.6155806229693082E-2</v>
       </c>
       <c r="C5">
-        <v>-6.5833671985596393E-4</v>
+        <v>-1.1998189861514817E-3</v>
       </c>
       <c r="D5">
-        <v>8.3230982827221843E-5</v>
+        <v>1.4006426051449186E-4</v>
       </c>
       <c r="E5">
-        <v>-1.097733898976017E-6</v>
+        <v>-1.5248831375794918E-6</v>
       </c>
       <c r="F5">
-        <v>4.2028558656707002E-3</v>
+        <v>5.0946506351035393E-3</v>
       </c>
       <c r="G5">
-        <v>3.4162035765459187E-3</v>
+        <v>4.3191938795045792E-3</v>
       </c>
       <c r="H5">
-        <v>-1.254597255356408E-3</v>
+        <v>-2.9604614543362576E-4</v>
       </c>
       <c r="I5">
-        <v>-3.1710044451433873E-5</v>
+        <v>-3.8248840097788322E-4</v>
       </c>
       <c r="J5">
-        <v>1.3472219115010225E-4</v>
+        <v>-6.1084290097578975E-6</v>
       </c>
       <c r="K5">
-        <v>-1.7840136034744908E-4</v>
+        <v>-2.094323869061155E-4</v>
       </c>
       <c r="L5">
-        <v>7.4048868199784955E-4</v>
+        <v>-6.5770750103680579E-4</v>
       </c>
       <c r="M5">
-        <v>7.8189621131307828E-4</v>
+        <v>6.5674232673097982E-4</v>
       </c>
       <c r="N5">
-        <v>-5.0219466797334685E-4</v>
+        <v>4.6928891927912558E-4</v>
       </c>
       <c r="O5">
-        <v>-7.452547604900443E-4</v>
+        <v>6.5435371642265762E-4</v>
       </c>
       <c r="P5">
-        <v>-3.5960337796051424E-4</v>
+        <v>6.4205897937459166E-4</v>
       </c>
       <c r="Q5">
-        <v>-6.1749668244777422E-4</v>
+        <v>3.7195079985539959E-4</v>
       </c>
       <c r="R5">
-        <v>7.1266926733460403E-5</v>
+        <v>-8.4815273089669659E-5</v>
       </c>
       <c r="S5">
-        <v>3.5239580937457374E-4</v>
+        <v>1.1365746901166136E-3</v>
       </c>
       <c r="T5">
-        <v>-3.3797055603508358E-4</v>
+        <v>7.2621931669947042E-4</v>
       </c>
       <c r="U5">
-        <v>-5.0771179414057909E-3</v>
+        <v>-5.0880645528419708E-3</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.45">
@@ -1183,64 +1183,64 @@
         <v>12</v>
       </c>
       <c r="B6" s="25">
-        <v>0.16841007032160976</v>
+        <v>0.16163173132467293</v>
       </c>
       <c r="C6">
-        <v>-9.0868467049688641E-4</v>
+        <v>-1.5035471558158648E-3</v>
       </c>
       <c r="D6">
-        <v>1.3566738004422516E-4</v>
+        <v>2.0550593255125592E-4</v>
       </c>
       <c r="E6">
-        <v>-1.6832020024851031E-6</v>
+        <v>-2.2337569665263269E-6</v>
       </c>
       <c r="F6">
-        <v>3.4162035765459187E-3</v>
+        <v>4.3191938795045792E-3</v>
       </c>
       <c r="G6">
-        <v>6.7084347392911614E-3</v>
+        <v>7.4778394912455763E-3</v>
       </c>
       <c r="H6">
-        <v>-1.7599656403455648E-3</v>
+        <v>-7.1625177546400789E-4</v>
       </c>
       <c r="I6">
-        <v>-3.874988611700231E-4</v>
+        <v>-4.991908673410108E-4</v>
       </c>
       <c r="J6">
-        <v>7.4078455264415459E-4</v>
+        <v>1.7984503590435377E-4</v>
       </c>
       <c r="K6">
-        <v>3.3540405778333571E-4</v>
+        <v>4.3036617516158351E-5</v>
       </c>
       <c r="L6">
-        <v>1.1336310671495309E-3</v>
+        <v>7.8368079235106966E-5</v>
       </c>
       <c r="M6">
-        <v>1.352053861555805E-3</v>
+        <v>1.1816488399494E-3</v>
       </c>
       <c r="N6">
-        <v>-2.729542105832886E-4</v>
+        <v>7.3345767495893712E-4</v>
       </c>
       <c r="O6">
-        <v>-9.5649431064722301E-4</v>
+        <v>2.446418363308972E-4</v>
       </c>
       <c r="P6">
-        <v>-4.9093235021916586E-4</v>
+        <v>3.8885163647510565E-4</v>
       </c>
       <c r="Q6">
-        <v>-5.8726435524942221E-4</v>
+        <v>3.0349642241586129E-4</v>
       </c>
       <c r="R6">
-        <v>9.6201056861943589E-5</v>
+        <v>-4.5113381511268269E-5</v>
       </c>
       <c r="S6">
-        <v>1.5823188340985969E-4</v>
+        <v>7.8465208508262947E-4</v>
       </c>
       <c r="T6">
-        <v>-4.2655590014549277E-4</v>
+        <v>4.2273139124957221E-4</v>
       </c>
       <c r="U6">
-        <v>-6.7566344425039346E-3</v>
+        <v>-7.2088634383775654E-3</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.45">
@@ -1248,64 +1248,64 @@
         <v>13</v>
       </c>
       <c r="B7" s="25">
-        <v>-0.13618106130909516</v>
+        <v>-8.5393534937812252E-2</v>
       </c>
       <c r="C7">
-        <v>1.0398421251951178E-3</v>
+        <v>7.4228351539488795E-4</v>
       </c>
       <c r="D7">
-        <v>6.3274477635322528E-4</v>
+        <v>5.6595805211045319E-4</v>
       </c>
       <c r="E7">
-        <v>-6.2687400787505819E-6</v>
+        <v>-5.6366614763165203E-6</v>
       </c>
       <c r="F7">
-        <v>-1.254597255356408E-3</v>
+        <v>-2.9604614543362576E-4</v>
       </c>
       <c r="G7">
-        <v>-1.7599656403455648E-3</v>
+        <v>-7.1625177546400789E-4</v>
       </c>
       <c r="H7">
-        <v>1.7376356668216728E-2</v>
+        <v>1.6475082549353988E-2</v>
       </c>
       <c r="I7">
-        <v>3.6682462366679778E-3</v>
+        <v>3.3031895542429074E-3</v>
       </c>
       <c r="J7">
-        <v>7.6250633508130074E-4</v>
+        <v>2.7781280182433989E-4</v>
       </c>
       <c r="K7">
-        <v>3.9455100922039825E-3</v>
+        <v>3.8299952970011091E-3</v>
       </c>
       <c r="L7">
-        <v>4.3153950340825949E-3</v>
+        <v>3.7834760685082694E-3</v>
       </c>
       <c r="M7">
-        <v>3.8411769475462116E-3</v>
+        <v>3.7918788744625569E-3</v>
       </c>
       <c r="N7">
-        <v>-6.0687310968383316E-4</v>
+        <v>-4.1176120448207284E-4</v>
       </c>
       <c r="O7">
-        <v>8.7734981042798463E-4</v>
+        <v>9.6194364760185651E-4</v>
       </c>
       <c r="P7">
-        <v>3.8211291114289593E-5</v>
+        <v>1.5979758605881057E-4</v>
       </c>
       <c r="Q7">
-        <v>-3.8025633949231603E-4</v>
+        <v>-2.7264415967617577E-4</v>
       </c>
       <c r="R7">
-        <v>-2.1400746591108142E-4</v>
+        <v>-1.8423688999543429E-4</v>
       </c>
       <c r="S7">
-        <v>4.5920539760173503E-4</v>
+        <v>6.4353004501476819E-4</v>
       </c>
       <c r="T7">
-        <v>8.5406518641750057E-4</v>
+        <v>8.7213267352028584E-4</v>
       </c>
       <c r="U7">
-        <v>-1.5057183738774346E-2</v>
+        <v>-1.4154796903401622E-2</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.45">
@@ -1313,64 +1313,64 @@
         <v>14</v>
       </c>
       <c r="B8" s="25">
-        <v>-0.14020689188406407</v>
+        <v>-0.1156373647504981</v>
       </c>
       <c r="C8">
-        <v>3.8922907209524535E-4</v>
+        <v>4.9803164240136747E-4</v>
       </c>
       <c r="D8">
-        <v>5.3566181898893675E-5</v>
+        <v>4.9942544109857949E-7</v>
       </c>
       <c r="E8">
-        <v>-9.6931890023631259E-7</v>
+        <v>-4.2419608677183134E-7</v>
       </c>
       <c r="F8">
-        <v>-3.1710044451433873E-5</v>
+        <v>-3.8248840097788322E-4</v>
       </c>
       <c r="G8">
-        <v>-3.874988611700231E-4</v>
+        <v>-4.991908673410108E-4</v>
       </c>
       <c r="H8">
-        <v>3.6682462366679778E-3</v>
+        <v>3.3031895542429074E-3</v>
       </c>
       <c r="I8">
-        <v>5.1516928827844404E-3</v>
+        <v>5.1746758109491127E-3</v>
       </c>
       <c r="J8">
-        <v>1.9036225524437432E-4</v>
+        <v>4.4020834318086132E-4</v>
       </c>
       <c r="K8">
-        <v>2.3029931189768572E-3</v>
+        <v>2.6932003765974591E-3</v>
       </c>
       <c r="L8">
-        <v>3.5022343095714504E-3</v>
+        <v>3.7774501973610658E-3</v>
       </c>
       <c r="M8">
-        <v>3.6429675566175615E-3</v>
+        <v>3.7998835483519676E-3</v>
       </c>
       <c r="N8">
-        <v>1.3017051935860645E-4</v>
+        <v>-2.5219215524252808E-4</v>
       </c>
       <c r="O8">
-        <v>-1.1425486118570786E-4</v>
+        <v>-1.3796015184592073E-4</v>
       </c>
       <c r="P8">
-        <v>-1.8982019567778804E-4</v>
+        <v>-2.1201423218888309E-4</v>
       </c>
       <c r="Q8">
-        <v>1.53324629960224E-4</v>
+        <v>-6.9067191456350253E-5</v>
       </c>
       <c r="R8">
-        <v>6.7680355216959229E-7</v>
+        <v>2.9181857478508856E-5</v>
       </c>
       <c r="S8">
-        <v>-5.8556458570685282E-4</v>
+        <v>-4.6899092450789084E-4</v>
       </c>
       <c r="T8">
-        <v>-1.2553819961287974E-4</v>
+        <v>-1.4738017969970034E-4</v>
       </c>
       <c r="U8">
-        <v>-4.5324966123070267E-3</v>
+        <v>-3.685556143498778E-3</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.45">
@@ -1378,64 +1378,64 @@
         <v>15</v>
       </c>
       <c r="B9" s="25">
-        <v>-1.3162480801806738E-2</v>
+        <v>6.3801474439255758E-4</v>
       </c>
       <c r="C9">
-        <v>3.3840986030915922E-4</v>
+        <v>5.2432953270923274E-5</v>
       </c>
       <c r="D9">
-        <v>1.7376225322423576E-4</v>
+        <v>9.9448508742321247E-5</v>
       </c>
       <c r="E9">
-        <v>-1.9604186223022399E-6</v>
+        <v>-1.052023043085295E-6</v>
       </c>
       <c r="F9">
-        <v>1.3472219115010225E-4</v>
+        <v>-6.1084290097578975E-6</v>
       </c>
       <c r="G9">
-        <v>7.4078455264415459E-4</v>
+        <v>1.7984503590435377E-4</v>
       </c>
       <c r="H9">
-        <v>7.6250633508130074E-4</v>
+        <v>2.7781280182433989E-4</v>
       </c>
       <c r="I9">
-        <v>1.9036225524437432E-4</v>
+        <v>4.4020834318086132E-4</v>
       </c>
       <c r="J9">
-        <v>5.0616048781963619E-3</v>
+        <v>5.0584444733554638E-3</v>
       </c>
       <c r="K9">
-        <v>2.6841394680629351E-3</v>
+        <v>2.9540513335141517E-3</v>
       </c>
       <c r="L9">
-        <v>2.6599512293666448E-3</v>
+        <v>2.9949424131001231E-3</v>
       </c>
       <c r="M9">
-        <v>2.6729364667598629E-3</v>
+        <v>2.9655283668167604E-3</v>
       </c>
       <c r="N9">
-        <v>-4.1680870108370873E-4</v>
+        <v>2.4538523073250904E-4</v>
       </c>
       <c r="O9">
-        <v>-6.7839885291420777E-4</v>
+        <v>-1.1484099618000541E-4</v>
       </c>
       <c r="P9">
-        <v>-3.7269203215669255E-4</v>
+        <v>7.1505888421571689E-5</v>
       </c>
       <c r="Q9">
-        <v>-4.4358960670014985E-4</v>
+        <v>-2.186005451505226E-5</v>
       </c>
       <c r="R9">
-        <v>8.4885737988655901E-6</v>
+        <v>-8.2093578560623443E-6</v>
       </c>
       <c r="S9">
-        <v>-2.3139221459541999E-4</v>
+        <v>3.834430402477722E-5</v>
       </c>
       <c r="T9">
-        <v>-2.9711597181190344E-4</v>
+        <v>1.6041434895860485E-4</v>
       </c>
       <c r="U9">
-        <v>-6.320741529649323E-3</v>
+        <v>-5.1087248433580226E-3</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.45">
@@ -1443,64 +1443,64 @@
         <v>16</v>
       </c>
       <c r="B10" s="25">
-        <v>2.7296273347530625E-2</v>
+        <v>2.4786412508065347E-2</v>
       </c>
       <c r="C10">
-        <v>5.3187928020223302E-4</v>
+        <v>4.1024269281039988E-4</v>
       </c>
       <c r="D10">
-        <v>1.4956347356677991E-4</v>
+        <v>9.3426551069589805E-5</v>
       </c>
       <c r="E10">
-        <v>-1.5484689061216485E-6</v>
+        <v>-8.6891559200697434E-7</v>
       </c>
       <c r="F10">
-        <v>-1.7840136034744908E-4</v>
+        <v>-2.094323869061155E-4</v>
       </c>
       <c r="G10">
-        <v>3.3540405778333571E-4</v>
+        <v>4.3036617516158351E-5</v>
       </c>
       <c r="H10">
-        <v>3.9455100922039825E-3</v>
+        <v>3.8299952970011091E-3</v>
       </c>
       <c r="I10">
-        <v>2.3029931189768572E-3</v>
+        <v>2.6932003765974591E-3</v>
       </c>
       <c r="J10">
-        <v>2.6841394680629351E-3</v>
+        <v>2.9540513335141517E-3</v>
       </c>
       <c r="K10">
-        <v>6.8480919609876642E-3</v>
+        <v>7.0922961559190655E-3</v>
       </c>
       <c r="L10">
-        <v>4.3986422678949618E-3</v>
+        <v>4.9480038895770425E-3</v>
       </c>
       <c r="M10">
-        <v>4.4237015031167023E-3</v>
+        <v>4.9865574559693777E-3</v>
       </c>
       <c r="N10">
-        <v>9.969197527839261E-5</v>
+        <v>4.0865900717980625E-4</v>
       </c>
       <c r="O10">
-        <v>-2.1197287157523987E-4</v>
+        <v>1.0235762083410632E-5</v>
       </c>
       <c r="P10">
-        <v>2.7191283890784599E-4</v>
+        <v>4.2351690542027226E-4</v>
       </c>
       <c r="Q10">
-        <v>2.6190463424618192E-4</v>
+        <v>2.7597988009918405E-4</v>
       </c>
       <c r="R10">
-        <v>2.8646931320398632E-5</v>
+        <v>2.1945049200659925E-5</v>
       </c>
       <c r="S10">
-        <v>1.1665781225125149E-4</v>
+        <v>4.6118205992950854E-4</v>
       </c>
       <c r="T10">
-        <v>-4.4250881163084227E-4</v>
+        <v>-1.5580521177432742E-4</v>
       </c>
       <c r="U10">
-        <v>-8.7736736729315621E-3</v>
+        <v>-8.1820702395561263E-3</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.45">
@@ -1508,64 +1508,64 @@
         <v>17</v>
       </c>
       <c r="B11" s="25">
-        <v>-6.0860125956999939E-2</v>
+        <v>-6.1620942606628808E-2</v>
       </c>
       <c r="C11">
-        <v>4.501254327166738E-5</v>
+        <v>2.7414811055102438E-4</v>
       </c>
       <c r="D11">
-        <v>9.6594925385681471E-5</v>
+        <v>7.4750750814727828E-6</v>
       </c>
       <c r="E11">
-        <v>-1.0314278561374241E-6</v>
+        <v>-5.8357044489944793E-8</v>
       </c>
       <c r="F11">
-        <v>7.4048868199784955E-4</v>
+        <v>-6.5770750103680579E-4</v>
       </c>
       <c r="G11">
-        <v>1.1336310671495309E-3</v>
+        <v>7.8368079235106966E-5</v>
       </c>
       <c r="H11">
-        <v>4.3153950340825949E-3</v>
+        <v>3.7834760685082694E-3</v>
       </c>
       <c r="I11">
-        <v>3.5022343095714504E-3</v>
+        <v>3.7774501973610658E-3</v>
       </c>
       <c r="J11">
-        <v>2.6599512293666448E-3</v>
+        <v>2.9949424131001231E-3</v>
       </c>
       <c r="K11">
-        <v>4.3986422678949618E-3</v>
+        <v>4.9480038895770425E-3</v>
       </c>
       <c r="L11">
-        <v>8.0953175255528663E-3</v>
+        <v>8.4533510154428046E-3</v>
       </c>
       <c r="M11">
-        <v>5.5022994313384133E-3</v>
+        <v>5.6968507207030821E-3</v>
       </c>
       <c r="N11">
-        <v>-4.9936863625782034E-4</v>
+        <v>-1.9044519004257372E-4</v>
       </c>
       <c r="O11">
-        <v>9.4777891995043899E-5</v>
+        <v>8.410162126311219E-5</v>
       </c>
       <c r="P11">
-        <v>2.2038475770486902E-4</v>
+        <v>1.1281810869378335E-4</v>
       </c>
       <c r="Q11">
-        <v>-3.3048499094696189E-4</v>
+        <v>-4.1065402144040055E-4</v>
       </c>
       <c r="R11">
-        <v>5.0532427042557291E-5</v>
+        <v>1.0704930846318339E-4</v>
       </c>
       <c r="S11">
-        <v>1.9382454694457236E-4</v>
+        <v>-2.7822888421655554E-4</v>
       </c>
       <c r="T11">
-        <v>-1.6639888794146721E-4</v>
+        <v>-4.3145386955002578E-4</v>
       </c>
       <c r="U11">
-        <v>-9.1520404065123552E-3</v>
+        <v>-7.6764820956070909E-3</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.45">
@@ -1573,64 +1573,64 @@
         <v>18</v>
       </c>
       <c r="B12" s="25">
-        <v>-0.19497641053060574</v>
+        <v>-0.23733490968972007</v>
       </c>
       <c r="C12">
-        <v>6.7744834056419315E-5</v>
+        <v>-6.6563500081986623E-5</v>
       </c>
       <c r="D12">
-        <v>9.5020011829085151E-5</v>
+        <v>6.0544215738963635E-6</v>
       </c>
       <c r="E12">
-        <v>-1.1168606489236401E-6</v>
+        <v>-1.8073561290011378E-8</v>
       </c>
       <c r="F12">
-        <v>7.8189621131307828E-4</v>
+        <v>6.5674232673097982E-4</v>
       </c>
       <c r="G12">
-        <v>1.352053861555805E-3</v>
+        <v>1.1816488399494E-3</v>
       </c>
       <c r="H12">
-        <v>3.8411769475462116E-3</v>
+        <v>3.7918788744625569E-3</v>
       </c>
       <c r="I12">
-        <v>3.6429675566175615E-3</v>
+        <v>3.7998835483519676E-3</v>
       </c>
       <c r="J12">
-        <v>2.6729364667598629E-3</v>
+        <v>2.9655283668167604E-3</v>
       </c>
       <c r="K12">
-        <v>4.4237015031167023E-3</v>
+        <v>4.9865574559693777E-3</v>
       </c>
       <c r="L12">
-        <v>5.5022994313384133E-3</v>
+        <v>5.6968507207030821E-3</v>
       </c>
       <c r="M12">
-        <v>1.0844732440375947E-2</v>
+        <v>1.0254939504559284E-2</v>
       </c>
       <c r="N12">
-        <v>4.5613500047849038E-4</v>
+        <v>8.2861916074307516E-4</v>
       </c>
       <c r="O12">
-        <v>-5.9445953998729368E-4</v>
+        <v>3.3723323913331183E-4</v>
       </c>
       <c r="P12">
-        <v>2.6979823274722505E-4</v>
+        <v>9.1445506918534343E-4</v>
       </c>
       <c r="Q12">
-        <v>1.6622733068950152E-5</v>
+        <v>5.6898231351063845E-4</v>
       </c>
       <c r="R12">
-        <v>1.7044923090510844E-5</v>
+        <v>-2.8329956452071792E-5</v>
       </c>
       <c r="S12">
-        <v>-4.5266540741604989E-4</v>
+        <v>-6.9094923631152856E-5</v>
       </c>
       <c r="T12">
-        <v>-4.6427663376211572E-4</v>
+        <v>3.950119462962586E-4</v>
       </c>
       <c r="U12">
-        <v>-8.5770080009076946E-3</v>
+        <v>-6.9698403962961293E-3</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.45">
@@ -1638,64 +1638,64 @@
         <v>23</v>
       </c>
       <c r="B13" s="25">
-        <v>-0.13479449392538281</v>
+        <v>-6.6682960772870198E-2</v>
       </c>
       <c r="C13">
-        <v>-3.2194673501378457E-5</v>
+        <v>-3.6173457267957092E-4</v>
       </c>
       <c r="D13">
-        <v>-2.6032021345152021E-4</v>
+        <v>-1.613455948566698E-4</v>
       </c>
       <c r="E13">
-        <v>2.7354786722752908E-6</v>
+        <v>1.7971483341677467E-6</v>
       </c>
       <c r="F13">
-        <v>-5.0219466797334685E-4</v>
+        <v>4.6928891927912558E-4</v>
       </c>
       <c r="G13">
-        <v>-2.729542105832886E-4</v>
+        <v>7.3345767495893712E-4</v>
       </c>
       <c r="H13">
-        <v>-6.0687310968383316E-4</v>
+        <v>-4.1176120448207284E-4</v>
       </c>
       <c r="I13">
-        <v>1.3017051935860645E-4</v>
+        <v>-2.5219215524252808E-4</v>
       </c>
       <c r="J13">
-        <v>-4.1680870108370873E-4</v>
+        <v>2.4538523073250904E-4</v>
       </c>
       <c r="K13">
-        <v>9.969197527839261E-5</v>
+        <v>4.0865900717980625E-4</v>
       </c>
       <c r="L13">
-        <v>-4.9936863625782034E-4</v>
+        <v>-1.9044519004257372E-4</v>
       </c>
       <c r="M13">
-        <v>4.5613500047849038E-4</v>
+        <v>8.2861916074307516E-4</v>
       </c>
       <c r="N13">
-        <v>6.8715582442637462E-3</v>
+        <v>6.7335347934631695E-3</v>
       </c>
       <c r="O13">
-        <v>3.2802969139534848E-3</v>
+        <v>3.1812909278894443E-3</v>
       </c>
       <c r="P13">
-        <v>3.1722143125974176E-3</v>
+        <v>3.1533662761079606E-3</v>
       </c>
       <c r="Q13">
-        <v>3.2672824562947401E-3</v>
+        <v>3.1838342308435586E-3</v>
       </c>
       <c r="R13">
-        <v>2.6341586352290341E-5</v>
+        <v>-1.5853808620587141E-5</v>
       </c>
       <c r="S13">
-        <v>-1.2057844710946588E-3</v>
+        <v>-9.9972569458589545E-4</v>
       </c>
       <c r="T13">
-        <v>2.5876732715377935E-5</v>
+        <v>1.7658378578224755E-4</v>
       </c>
       <c r="U13">
-        <v>2.4838391423673617E-3</v>
+        <v>1.5570081549651419E-4</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.45">
@@ -1703,64 +1703,64 @@
         <v>24</v>
       </c>
       <c r="B14" s="25">
-        <v>-2.5786015515021195E-2</v>
+        <v>-2.9342934621570088E-2</v>
       </c>
       <c r="C14">
-        <v>2.8035150865206548E-4</v>
+        <v>1.0019547275450218E-5</v>
       </c>
       <c r="D14">
-        <v>-7.4081630115542248E-5</v>
+        <v>-5.2838722402124812E-5</v>
       </c>
       <c r="E14">
-        <v>6.9279578407522787E-7</v>
+        <v>4.9783687837146108E-7</v>
       </c>
       <c r="F14">
-        <v>-7.452547604900443E-4</v>
+        <v>6.5435371642265762E-4</v>
       </c>
       <c r="G14">
-        <v>-9.5649431064722301E-4</v>
+        <v>2.446418363308972E-4</v>
       </c>
       <c r="H14">
-        <v>8.7734981042798463E-4</v>
+        <v>9.6194364760185651E-4</v>
       </c>
       <c r="I14">
-        <v>-1.1425486118570786E-4</v>
+        <v>-1.3796015184592073E-4</v>
       </c>
       <c r="J14">
-        <v>-6.7839885291420777E-4</v>
+        <v>-1.1484099618000541E-4</v>
       </c>
       <c r="K14">
-        <v>-2.1197287157523987E-4</v>
+        <v>1.0235762083410632E-5</v>
       </c>
       <c r="L14">
-        <v>9.4777891995043899E-5</v>
+        <v>8.410162126311219E-5</v>
       </c>
       <c r="M14">
-        <v>-5.9445953998729368E-4</v>
+        <v>3.3723323913331183E-4</v>
       </c>
       <c r="N14">
-        <v>3.2802969139534848E-3</v>
+        <v>3.1812909278894443E-3</v>
       </c>
       <c r="O14">
-        <v>8.1341614158806363E-3</v>
+        <v>7.6453821587282233E-3</v>
       </c>
       <c r="P14">
-        <v>3.1988933798100952E-3</v>
+        <v>3.1639708298427005E-3</v>
       </c>
       <c r="Q14">
-        <v>3.3213188255885855E-3</v>
+        <v>3.2706089776939765E-3</v>
       </c>
       <c r="R14">
-        <v>-1.3624330820505285E-5</v>
+        <v>-7.3760668143682808E-5</v>
       </c>
       <c r="S14">
-        <v>-9.9974219834847813E-4</v>
+        <v>-7.2350623490558463E-4</v>
       </c>
       <c r="T14">
-        <v>-1.2159609146559765E-4</v>
+        <v>2.9206570676786254E-4</v>
       </c>
       <c r="U14">
-        <v>-4.3084841826589328E-4</v>
+        <v>-1.101443856693171E-3</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.45">
@@ -1768,64 +1768,64 @@
         <v>25</v>
       </c>
       <c r="B15" s="25">
-        <v>-2.2877060038614207E-2</v>
+        <v>-1.5270915975767508E-2</v>
       </c>
       <c r="C15">
-        <v>-1.8798732344615606E-5</v>
+        <v>-2.2551152827917818E-4</v>
       </c>
       <c r="D15">
-        <v>-1.4551108841256706E-4</v>
+        <v>-1.2163936475016344E-4</v>
       </c>
       <c r="E15">
-        <v>1.598097951055223E-6</v>
+        <v>1.3646827261289905E-6</v>
       </c>
       <c r="F15">
-        <v>-3.5960337796051424E-4</v>
+        <v>6.4205897937459166E-4</v>
       </c>
       <c r="G15">
-        <v>-4.9093235021916586E-4</v>
+        <v>3.8885163647510565E-4</v>
       </c>
       <c r="H15">
-        <v>3.8211291114289593E-5</v>
+        <v>1.5979758605881057E-4</v>
       </c>
       <c r="I15">
-        <v>-1.8982019567778804E-4</v>
+        <v>-2.1201423218888309E-4</v>
       </c>
       <c r="J15">
-        <v>-3.7269203215669255E-4</v>
+        <v>7.1505888421571689E-5</v>
       </c>
       <c r="K15">
-        <v>2.7191283890784599E-4</v>
+        <v>4.2351690542027226E-4</v>
       </c>
       <c r="L15">
-        <v>2.2038475770486902E-4</v>
+        <v>1.1281810869378335E-4</v>
       </c>
       <c r="M15">
-        <v>2.6979823274722505E-4</v>
+        <v>9.1445506918534343E-4</v>
       </c>
       <c r="N15">
-        <v>3.1722143125974176E-3</v>
+        <v>3.1533662761079606E-3</v>
       </c>
       <c r="O15">
-        <v>3.1988933798100952E-3</v>
+        <v>3.1639708298427005E-3</v>
       </c>
       <c r="P15">
-        <v>6.4103397651166507E-3</v>
+        <v>6.1265798638291619E-3</v>
       </c>
       <c r="Q15">
-        <v>3.2162791087534202E-3</v>
+        <v>3.2111241965008873E-3</v>
       </c>
       <c r="R15">
-        <v>5.2616224396789926E-5</v>
+        <v>-2.2787272398849744E-5</v>
       </c>
       <c r="S15">
-        <v>-1.354074844482999E-3</v>
+        <v>-9.1227289582083071E-4</v>
       </c>
       <c r="T15">
-        <v>-8.0409810638105723E-5</v>
+        <v>4.1833910480242324E-4</v>
       </c>
       <c r="U15">
-        <v>-6.591446019666553E-4</v>
+        <v>-8.056004747605879E-4</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.45">
@@ -1833,64 +1833,64 @@
         <v>27</v>
       </c>
       <c r="B16" s="25">
-        <v>-0.31275047781772625</v>
+        <v>-0.27317812704178646</v>
       </c>
       <c r="C16">
-        <v>-4.1905281142000925E-4</v>
+        <v>-4.8017637868189239E-4</v>
       </c>
       <c r="D16">
-        <v>-1.0417131349499636E-4</v>
+        <v>-6.7730808577116291E-5</v>
       </c>
       <c r="E16">
-        <v>9.433436812224032E-7</v>
+        <v>6.1802787958010054E-7</v>
       </c>
       <c r="F16">
-        <v>-6.1749668244777422E-4</v>
+        <v>3.7195079985539959E-4</v>
       </c>
       <c r="G16">
-        <v>-5.8726435524942221E-4</v>
+        <v>3.0349642241586129E-4</v>
       </c>
       <c r="H16">
-        <v>-3.8025633949231603E-4</v>
+        <v>-2.7264415967617577E-4</v>
       </c>
       <c r="I16">
-        <v>1.53324629960224E-4</v>
+        <v>-6.9067191456350253E-5</v>
       </c>
       <c r="J16">
-        <v>-4.4358960670014985E-4</v>
+        <v>-2.186005451505226E-5</v>
       </c>
       <c r="K16">
-        <v>2.6190463424618192E-4</v>
+        <v>2.7597988009918405E-4</v>
       </c>
       <c r="L16">
-        <v>-3.3048499094696189E-4</v>
+        <v>-4.1065402144040055E-4</v>
       </c>
       <c r="M16">
-        <v>1.6622733068950152E-5</v>
+        <v>5.6898231351063845E-4</v>
       </c>
       <c r="N16">
-        <v>3.2672824562947401E-3</v>
+        <v>3.1838342308435586E-3</v>
       </c>
       <c r="O16">
-        <v>3.3213188255885855E-3</v>
+        <v>3.2706089776939765E-3</v>
       </c>
       <c r="P16">
-        <v>3.2162791087534202E-3</v>
+        <v>3.2111241965008873E-3</v>
       </c>
       <c r="Q16">
-        <v>5.0086355006987654E-3</v>
+        <v>4.8186778229817699E-3</v>
       </c>
       <c r="R16">
-        <v>8.9895667344076042E-7</v>
+        <v>-6.9453635294529928E-5</v>
       </c>
       <c r="S16">
-        <v>-1.2672851715454971E-3</v>
+        <v>-8.2539478785103074E-4</v>
       </c>
       <c r="T16">
-        <v>4.4897092409169198E-5</v>
+        <v>5.9529090450204851E-4</v>
       </c>
       <c r="U16">
-        <v>1.944312385144573E-4</v>
+        <v>-3.103308346269003E-4</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.45">
@@ -1898,64 +1898,64 @@
         <v>19</v>
       </c>
       <c r="B17" s="25">
-        <v>4.1226760369083666E-3</v>
+        <v>6.8722464069618195E-3</v>
       </c>
       <c r="C17">
-        <v>-3.6781134066994552E-5</v>
+        <v>1.853372786523339E-5</v>
       </c>
       <c r="D17">
-        <v>-7.3221955988590315E-6</v>
+        <v>-9.9681143497016471E-6</v>
       </c>
       <c r="E17">
-        <v>4.5165439238715589E-8</v>
+        <v>8.0177784533272014E-8</v>
       </c>
       <c r="F17">
-        <v>7.1266926733460403E-5</v>
+        <v>-8.4815273089669659E-5</v>
       </c>
       <c r="G17">
-        <v>9.6201056861943589E-5</v>
+        <v>-4.5113381511268269E-5</v>
       </c>
       <c r="H17">
-        <v>-2.1400746591108142E-4</v>
+        <v>-1.8423688999543429E-4</v>
       </c>
       <c r="I17">
-        <v>6.7680355216959229E-7</v>
+        <v>2.9181857478508856E-5</v>
       </c>
       <c r="J17">
-        <v>8.4885737988655901E-6</v>
+        <v>-8.2093578560623443E-6</v>
       </c>
       <c r="K17">
-        <v>2.8646931320398632E-5</v>
+        <v>2.1945049200659925E-5</v>
       </c>
       <c r="L17">
-        <v>5.0532427042557291E-5</v>
+        <v>1.0704930846318339E-4</v>
       </c>
       <c r="M17">
-        <v>1.7044923090510844E-5</v>
+        <v>-2.8329956452071792E-5</v>
       </c>
       <c r="N17">
-        <v>2.6341586352290341E-5</v>
+        <v>-1.5853808620587141E-5</v>
       </c>
       <c r="O17">
-        <v>-1.3624330820505285E-5</v>
+        <v>-7.3760668143682808E-5</v>
       </c>
       <c r="P17">
-        <v>5.2616224396789926E-5</v>
+        <v>-2.2787272398849744E-5</v>
       </c>
       <c r="Q17">
-        <v>8.9895667344076042E-7</v>
+        <v>-6.9453635294529928E-5</v>
       </c>
       <c r="R17">
-        <v>5.4485355745443904E-5</v>
+        <v>5.3222287681176752E-5</v>
       </c>
       <c r="S17">
-        <v>-2.159801463295682E-4</v>
+        <v>-2.1893922833498452E-4</v>
       </c>
       <c r="T17">
-        <v>-2.6724386220385179E-4</v>
+        <v>-2.6565572423556947E-4</v>
       </c>
       <c r="U17">
-        <v>-7.2301487277260626E-4</v>
+        <v>-5.3857560272013868E-4</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.45">
@@ -1963,64 +1963,64 @@
         <v>20</v>
       </c>
       <c r="B18" s="25">
-        <v>0.14602180122265909</v>
+        <v>0.10220996443345617</v>
       </c>
       <c r="C18">
-        <v>1.6000218189488069E-4</v>
+        <v>-4.2006908702979669E-4</v>
       </c>
       <c r="D18">
-        <v>1.2566976776982338E-4</v>
+        <v>1.4618694956358938E-4</v>
       </c>
       <c r="E18">
-        <v>-1.097985334159799E-6</v>
+        <v>-1.3498100560635599E-6</v>
       </c>
       <c r="F18">
-        <v>3.5239580937457374E-4</v>
+        <v>1.1365746901166136E-3</v>
       </c>
       <c r="G18">
-        <v>1.5823188340985969E-4</v>
+        <v>7.8465208508262947E-4</v>
       </c>
       <c r="H18">
-        <v>4.5920539760173503E-4</v>
+        <v>6.4353004501476819E-4</v>
       </c>
       <c r="I18">
-        <v>-5.8556458570685282E-4</v>
+        <v>-4.6899092450789084E-4</v>
       </c>
       <c r="J18">
-        <v>-2.3139221459541999E-4</v>
+        <v>3.834430402477722E-5</v>
       </c>
       <c r="K18">
-        <v>1.1665781225125149E-4</v>
+        <v>4.6118205992950854E-4</v>
       </c>
       <c r="L18">
-        <v>1.9382454694457236E-4</v>
+        <v>-2.7822888421655554E-4</v>
       </c>
       <c r="M18">
-        <v>-4.5266540741604989E-4</v>
+        <v>-6.9094923631152856E-5</v>
       </c>
       <c r="N18">
-        <v>-1.2057844710946588E-3</v>
+        <v>-9.9972569458589545E-4</v>
       </c>
       <c r="O18">
-        <v>-9.9974219834847813E-4</v>
+        <v>-7.2350623490558463E-4</v>
       </c>
       <c r="P18">
-        <v>-1.354074844482999E-3</v>
+        <v>-9.1227289582083071E-4</v>
       </c>
       <c r="Q18">
-        <v>-1.2672851715454971E-3</v>
+        <v>-8.2539478785103074E-4</v>
       </c>
       <c r="R18">
-        <v>-2.159801463295682E-4</v>
+        <v>-2.1893922833498452E-4</v>
       </c>
       <c r="S18">
-        <v>8.1915340269785759E-3</v>
+        <v>7.5611992030198824E-3</v>
       </c>
       <c r="T18">
-        <v>1.7546591075802318E-3</v>
+        <v>1.7561362828376577E-3</v>
       </c>
       <c r="U18">
-        <v>4.8719291778593195E-4</v>
+        <v>-5.1247747935289224E-4</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.45">
@@ -2028,64 +2028,64 @@
         <v>21</v>
       </c>
       <c r="B19" s="25">
-        <v>8.6856095674124167E-2</v>
+        <v>3.5055440316104192E-2</v>
       </c>
       <c r="C19">
-        <v>3.3725991723435544E-4</v>
+        <v>-4.6247554095766414E-5</v>
       </c>
       <c r="D19">
-        <v>5.4873233387122116E-5</v>
+        <v>4.9821301341587774E-5</v>
       </c>
       <c r="E19">
-        <v>-3.9113027936828039E-7</v>
+        <v>-3.4963450553689366E-7</v>
       </c>
       <c r="F19">
-        <v>-3.3797055603508358E-4</v>
+        <v>7.2621931669947042E-4</v>
       </c>
       <c r="G19">
-        <v>-4.2655590014549277E-4</v>
+        <v>4.2273139124957221E-4</v>
       </c>
       <c r="H19">
-        <v>8.5406518641750057E-4</v>
+        <v>8.7213267352028584E-4</v>
       </c>
       <c r="I19">
-        <v>-1.2553819961287974E-4</v>
+        <v>-1.4738017969970034E-4</v>
       </c>
       <c r="J19">
-        <v>-2.9711597181190344E-4</v>
+        <v>1.6041434895860485E-4</v>
       </c>
       <c r="K19">
-        <v>-4.4250881163084227E-4</v>
+        <v>-1.5580521177432742E-4</v>
       </c>
       <c r="L19">
-        <v>-1.6639888794146721E-4</v>
+        <v>-4.3145386955002578E-4</v>
       </c>
       <c r="M19">
-        <v>-4.6427663376211572E-4</v>
+        <v>3.950119462962586E-4</v>
       </c>
       <c r="N19">
-        <v>2.5876732715377935E-5</v>
+        <v>1.7658378578224755E-4</v>
       </c>
       <c r="O19">
-        <v>-1.2159609146559765E-4</v>
+        <v>2.9206570676786254E-4</v>
       </c>
       <c r="P19">
-        <v>-8.0409810638105723E-5</v>
+        <v>4.1833910480242324E-4</v>
       </c>
       <c r="Q19">
-        <v>4.4897092409169198E-5</v>
+        <v>5.9529090450204851E-4</v>
       </c>
       <c r="R19">
-        <v>-2.6724386220385179E-4</v>
+        <v>-2.6565572423556947E-4</v>
       </c>
       <c r="S19">
-        <v>1.7546591075802318E-3</v>
+        <v>1.7561362828376577E-3</v>
       </c>
       <c r="T19">
-        <v>7.0553519830877202E-3</v>
+        <v>6.5278870539961899E-3</v>
       </c>
       <c r="U19">
-        <v>2.4190098966119832E-3</v>
+        <v>1.4530746759693447E-3</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.45">
@@ -2093,64 +2093,64 @@
         <v>22</v>
       </c>
       <c r="B20" s="25">
-        <v>-2.8458209477899756</v>
+        <v>-3.0473730830758896</v>
       </c>
       <c r="C20">
-        <v>-1.0933608305128194E-3</v>
+        <v>-1.3054835906601295E-4</v>
       </c>
       <c r="D20">
-        <v>-3.0519568684057924E-3</v>
+        <v>-2.9049888381541748E-3</v>
       </c>
       <c r="E20">
-        <v>3.3782923729825076E-5</v>
+        <v>3.1840598958818253E-5</v>
       </c>
       <c r="F20">
-        <v>-5.0771179414057909E-3</v>
+        <v>-5.0880645528419708E-3</v>
       </c>
       <c r="G20">
-        <v>-6.7566344425039346E-3</v>
+        <v>-7.2088634383775654E-3</v>
       </c>
       <c r="H20">
-        <v>-1.5057183738774346E-2</v>
+        <v>-1.4154796903401622E-2</v>
       </c>
       <c r="I20">
-        <v>-4.5324966123070267E-3</v>
+        <v>-3.685556143498778E-3</v>
       </c>
       <c r="J20">
-        <v>-6.320741529649323E-3</v>
+        <v>-5.1087248433580226E-3</v>
       </c>
       <c r="K20">
-        <v>-8.7736736729315621E-3</v>
+        <v>-8.1820702395561263E-3</v>
       </c>
       <c r="L20">
-        <v>-9.1520404065123552E-3</v>
+        <v>-7.6764820956070909E-3</v>
       </c>
       <c r="M20">
-        <v>-8.5770080009076946E-3</v>
+        <v>-6.9698403962961293E-3</v>
       </c>
       <c r="N20">
-        <v>2.4838391423673617E-3</v>
+        <v>1.5570081549651419E-4</v>
       </c>
       <c r="O20">
-        <v>-4.3084841826589328E-4</v>
+        <v>-1.101443856693171E-3</v>
       </c>
       <c r="P20">
-        <v>-6.591446019666553E-4</v>
+        <v>-8.056004747605879E-4</v>
       </c>
       <c r="Q20">
-        <v>1.944312385144573E-4</v>
+        <v>-3.103308346269003E-4</v>
       </c>
       <c r="R20">
-        <v>-7.2301487277260626E-4</v>
+        <v>-5.3857560272013868E-4</v>
       </c>
       <c r="S20">
-        <v>4.8719291778593195E-4</v>
+        <v>-5.1247747935289224E-4</v>
       </c>
       <c r="T20">
-        <v>2.4190098966119832E-3</v>
+        <v>1.4530746759693447E-3</v>
       </c>
       <c r="U20">
-        <v>8.7739595383006422E-2</v>
+        <v>8.1580394481030868E-2</v>
       </c>
     </row>
   </sheetData>
